--- a/base de datos/covid_zmvm.xlsx
+++ b/base de datos/covid_zmvm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jprud\Documents\Proyectos académicos\1. UAM\2. Docencia\4. Análisis espacial con R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analisis-de-datos-espaciales\base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBF6E30-5C4E-4517-9190-3015BCE70EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBEC504-B708-486A-A040-2890E8017A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covid_zmvm" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="288">
   <si>
     <t>cve_ent</t>
   </si>
@@ -892,6 +892,9 @@
   </si>
   <si>
     <t>nom_ent</t>
+  </si>
+  <si>
+    <t>idh2015</t>
   </si>
 </sst>
 </file>
@@ -1241,10 +1244,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC77"/>
+  <dimension ref="A1:BD77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2:AO77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1254,10 +1257,11 @@
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="17" width="15"/>
-    <col min="19" max="1006" width="15"/>
+    <col min="19" max="40" width="15"/>
+    <col min="42" max="1007" width="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1379,52 +1383,55 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AP1" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>40</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>41</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>42</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>43</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>44</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>46</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>47</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>48</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>49</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>50</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1546,52 +1553,55 @@
         <v>49.337115589119598</v>
       </c>
       <c r="AO2">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="AP2">
         <v>60.446051437249402</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>56</v>
       </c>
-      <c r="AQ2">
+      <c r="AR2">
         <v>11.28</v>
       </c>
-      <c r="AR2">
+      <c r="AS2">
         <v>11.49</v>
       </c>
-      <c r="AS2">
+      <c r="AT2">
         <v>11.11</v>
       </c>
-      <c r="AT2">
+      <c r="AU2">
         <v>9.1229932131694003E-2</v>
       </c>
-      <c r="AU2">
+      <c r="AV2">
         <v>0.16021795044318801</v>
       </c>
-      <c r="AV2">
+      <c r="AW2">
         <v>0.74855211742511796</v>
       </c>
-      <c r="AW2">
+      <c r="AX2">
         <v>20.322963800904979</v>
       </c>
-      <c r="AX2">
+      <c r="AY2">
         <v>5.9547041615551581</v>
       </c>
-      <c r="AY2">
+      <c r="AZ2">
         <v>27.690241382549079</v>
       </c>
-      <c r="AZ2">
+      <c r="BA2">
         <v>68.23102613342239</v>
       </c>
-      <c r="BA2">
+      <c r="BB2">
         <v>50.633735856232768</v>
       </c>
-      <c r="BB2">
+      <c r="BC2">
         <v>178.28974825146361</v>
       </c>
-      <c r="BC2">
+      <c r="BD2">
         <v>7894.5195507487533</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1713,52 +1723,55 @@
         <v>61.190645223748398</v>
       </c>
       <c r="AO3">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="AP3">
         <v>59.527351490639298</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>56</v>
       </c>
-      <c r="AQ3">
+      <c r="AR3">
         <v>11.5</v>
       </c>
-      <c r="AR3">
+      <c r="AS3">
         <v>11.66</v>
       </c>
-      <c r="AS3">
+      <c r="AT3">
         <v>11.36</v>
       </c>
-      <c r="AT3">
+      <c r="AU3">
         <v>8.7447997646762005E-2</v>
       </c>
-      <c r="AU3">
+      <c r="AV3">
         <v>0.18456574825024599</v>
       </c>
-      <c r="AV3">
+      <c r="AW3">
         <v>0.727986254102992</v>
       </c>
-      <c r="AW3">
+      <c r="AX3">
         <v>8.8973871733966767</v>
       </c>
-      <c r="AX3">
+      <c r="AY3">
         <v>3.4781346238451389</v>
       </c>
-      <c r="AY3">
+      <c r="AZ3">
         <v>13.90608276846236</v>
       </c>
-      <c r="AZ3">
+      <c r="BA3">
         <v>116.7375727481446</v>
       </c>
-      <c r="BA3">
+      <c r="BB3">
         <v>31.322042045080831</v>
       </c>
-      <c r="BB3">
+      <c r="BC3">
         <v>36.321995959336817</v>
       </c>
-      <c r="BC3">
+      <c r="BD3">
         <v>2254.7773983635079</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1880,52 +1893,55 @@
         <v>41.394889553207904</v>
       </c>
       <c r="AO4">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="AP4">
         <v>61.287519064251107</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>56</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>12.41</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>12.75</v>
       </c>
-      <c r="AS4">
+      <c r="AT4">
         <v>12.1</v>
       </c>
-      <c r="AT4">
+      <c r="AU4">
         <v>0.13342627736395499</v>
       </c>
-      <c r="AU4">
+      <c r="AV4">
         <v>0.16638081635207999</v>
       </c>
-      <c r="AV4">
+      <c r="AW4">
         <v>0.70019290628396502</v>
       </c>
-      <c r="AW4">
+      <c r="AX4">
         <v>27.565718316482481</v>
       </c>
-      <c r="AX4">
+      <c r="AY4">
         <v>4.3552596299937436</v>
       </c>
-      <c r="AY4">
+      <c r="AZ4">
         <v>24.872048835705041</v>
       </c>
-      <c r="AZ4">
+      <c r="BA4">
         <v>55.909124252582373</v>
       </c>
-      <c r="BA4">
+      <c r="BB4">
         <v>45.476185590281339</v>
       </c>
-      <c r="BB4">
+      <c r="BC4">
         <v>255.58914723642189</v>
       </c>
-      <c r="BC4">
+      <c r="BD4">
         <v>16786.10086100861</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -2047,52 +2063,55 @@
         <v>57.246113748487403</v>
       </c>
       <c r="AO5">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="AP5">
         <v>60.343607747244199</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>56</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <v>11.46</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <v>11.69</v>
       </c>
-      <c r="AS5">
+      <c r="AT5">
         <v>11.26</v>
       </c>
-      <c r="AT5">
+      <c r="AU5">
         <v>7.1415116848543E-2</v>
       </c>
-      <c r="AU5">
+      <c r="AV5">
         <v>0.28866173571258202</v>
       </c>
-      <c r="AV5">
+      <c r="AW5">
         <v>0.63992314743887602</v>
       </c>
-      <c r="AW5">
+      <c r="AX5">
         <v>6.5745664739884404</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>2.6566888182606179</v>
       </c>
-      <c r="AY5">
+      <c r="AZ5">
         <v>9.9374024960998444</v>
       </c>
-      <c r="AZ5">
+      <c r="BA5">
         <v>64.917443291717959</v>
       </c>
-      <c r="BA5">
+      <c r="BB5">
         <v>31.182929481881072</v>
       </c>
-      <c r="BB5">
+      <c r="BC5">
         <v>101.4138523126435</v>
       </c>
-      <c r="BC5">
+      <c r="BD5">
         <v>13104.07560543414</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -2214,52 +2233,55 @@
         <v>65.386182378318694</v>
       </c>
       <c r="AO6">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="AP6">
         <v>59.284146023748796</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>56</v>
       </c>
-      <c r="AQ6">
+      <c r="AR6">
         <v>10.53</v>
       </c>
-      <c r="AR6">
+      <c r="AS6">
         <v>10.69</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>10.38</v>
       </c>
-      <c r="AT6">
+      <c r="AU6">
         <v>0.24422314192102099</v>
       </c>
-      <c r="AU6">
+      <c r="AV6">
         <v>0.39429211933091901</v>
       </c>
-      <c r="AV6">
+      <c r="AW6">
         <v>0.36148473874805997</v>
       </c>
-      <c r="AW6">
+      <c r="AX6">
         <v>6.4229024943310664</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>2.11712962962963</v>
       </c>
-      <c r="AY6">
+      <c r="AZ6">
         <v>2.588362401605186</v>
       </c>
-      <c r="AZ6">
+      <c r="BA6">
         <v>78.346425419240958</v>
       </c>
-      <c r="BA6">
+      <c r="BB6">
         <v>23.525584955171659</v>
       </c>
-      <c r="BB6">
+      <c r="BC6">
         <v>23.40864639236732</v>
       </c>
-      <c r="BC6">
+      <c r="BD6">
         <v>4575.078717201166</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>74</v>
       </c>
@@ -2381,52 +2403,55 @@
         <v>54.685131432342303</v>
       </c>
       <c r="AO7">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="AP7">
         <v>60.596965758327201</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>56</v>
       </c>
-      <c r="AQ7">
+      <c r="AR7">
         <v>11.91</v>
       </c>
-      <c r="AR7">
+      <c r="AS7">
         <v>12.14</v>
       </c>
-      <c r="AS7">
+      <c r="AT7">
         <v>11.7</v>
       </c>
-      <c r="AT7">
+      <c r="AU7">
         <v>0.12788149798485601</v>
       </c>
-      <c r="AU7">
+      <c r="AV7">
         <v>0.12690414010898099</v>
       </c>
-      <c r="AV7">
+      <c r="AW7">
         <v>0.74521436190616297</v>
       </c>
-      <c r="AW7">
+      <c r="AX7">
         <v>29.25120192307692</v>
       </c>
-      <c r="AX7">
+      <c r="AY7">
         <v>5.9757515773846341</v>
       </c>
-      <c r="AY7">
+      <c r="AZ7">
         <v>37.813891481135848</v>
       </c>
-      <c r="AZ7">
+      <c r="BA7">
         <v>119.75249619920289</v>
       </c>
-      <c r="BA7">
+      <c r="BB7">
         <v>51.74065256097056</v>
       </c>
-      <c r="BB7">
+      <c r="BC7">
         <v>51.179000289096813</v>
       </c>
-      <c r="BC7">
+      <c r="BD7">
         <v>12893.94391408115</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>76</v>
       </c>
@@ -2548,52 +2573,55 @@
         <v>52.845709661491199</v>
       </c>
       <c r="AO8">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="AP8">
         <v>60.835957470125898</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>56</v>
       </c>
-      <c r="AQ8">
+      <c r="AR8">
         <v>12.51</v>
       </c>
-      <c r="AR8">
+      <c r="AS8">
         <v>12.77</v>
       </c>
-      <c r="AS8">
+      <c r="AT8">
         <v>12.29</v>
       </c>
-      <c r="AT8">
+      <c r="AU8">
         <v>0.120381963573229</v>
       </c>
-      <c r="AU8">
+      <c r="AV8">
         <v>0.27549345308648199</v>
       </c>
-      <c r="AV8">
+      <c r="AW8">
         <v>0.60412458334028896</v>
       </c>
-      <c r="AW8">
+      <c r="AX8">
         <v>13.25551470588235</v>
       </c>
-      <c r="AX8">
+      <c r="AY8">
         <v>5.0419594663407681</v>
       </c>
-      <c r="AY8">
+      <c r="AZ8">
         <v>9.5717686475048485</v>
       </c>
-      <c r="AZ8">
+      <c r="BA8">
         <v>170.33485878056669</v>
       </c>
-      <c r="BA8">
+      <c r="BB8">
         <v>41.545236027228469</v>
       </c>
-      <c r="BB8">
+      <c r="BC8">
         <v>74.610207897718382</v>
       </c>
-      <c r="BC8">
+      <c r="BD8">
         <v>11395.53041543027</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -2715,52 +2743,55 @@
         <v>67.441953663118397</v>
       </c>
       <c r="AO9">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AP9">
         <v>58.516258804165297</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>56</v>
       </c>
-      <c r="AQ9">
+      <c r="AR9">
         <v>10.84</v>
       </c>
-      <c r="AR9">
+      <c r="AS9">
         <v>10.92</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>10.76</v>
       </c>
-      <c r="AT9">
+      <c r="AU9">
         <v>0.16457628588776099</v>
       </c>
-      <c r="AU9">
+      <c r="AV9">
         <v>0.43634313470378999</v>
       </c>
-      <c r="AV9">
+      <c r="AW9">
         <v>0.39908057940844799</v>
       </c>
-      <c r="AW9">
+      <c r="AX9">
         <v>6.0542437779195923</v>
       </c>
-      <c r="AX9">
+      <c r="AY9">
         <v>2.2777325002263882</v>
       </c>
-      <c r="AY9">
+      <c r="AZ9">
         <v>3.5159712670029042</v>
       </c>
-      <c r="AZ9">
+      <c r="BA9">
         <v>72.944028670812685</v>
       </c>
-      <c r="BA9">
+      <c r="BB9">
         <v>27.71315548841093</v>
       </c>
-      <c r="BB9">
+      <c r="BC9">
         <v>72.939839165398823</v>
       </c>
-      <c r="BC9">
+      <c r="BD9">
         <v>3740.9306260575299</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -2882,52 +2913,55 @@
         <v>47.9523184724045</v>
       </c>
       <c r="AO10">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AP10">
         <v>60.4011639036924</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>56</v>
       </c>
-      <c r="AQ10">
+      <c r="AR10">
         <v>11.44</v>
       </c>
-      <c r="AR10">
+      <c r="AS10">
         <v>11.71</v>
       </c>
-      <c r="AS10">
+      <c r="AT10">
         <v>11.2</v>
       </c>
-      <c r="AT10">
+      <c r="AU10">
         <v>8.3376527212144003E-2</v>
       </c>
-      <c r="AU10">
+      <c r="AV10">
         <v>0.17750215969394101</v>
       </c>
-      <c r="AV10">
+      <c r="AW10">
         <v>0.73912131309391604</v>
       </c>
-      <c r="AW10">
+      <c r="AX10">
         <v>24.12857142857143</v>
       </c>
-      <c r="AX10">
+      <c r="AY10">
         <v>7.8147242597120359</v>
       </c>
-      <c r="AY10">
+      <c r="AZ10">
         <v>32.531776208582293</v>
       </c>
-      <c r="AZ10">
+      <c r="BA10">
         <v>113.24000888099469</v>
       </c>
-      <c r="BA10">
+      <c r="BB10">
         <v>42.985017033998467</v>
       </c>
-      <c r="BB10">
+      <c r="BC10">
         <v>102.52247416139321</v>
       </c>
-      <c r="BC10">
+      <c r="BD10">
         <v>3056.529064869419</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>86</v>
       </c>
@@ -3049,52 +3083,55 @@
         <v>47.573580212795399</v>
       </c>
       <c r="AO11">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="AP11">
         <v>61.180453572064899</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>56</v>
       </c>
-      <c r="AQ11">
+      <c r="AR11">
         <v>13.11</v>
       </c>
-      <c r="AR11">
+      <c r="AS11">
         <v>13.52</v>
       </c>
-      <c r="AS11">
+      <c r="AT11">
         <v>12.76</v>
       </c>
-      <c r="AT11">
+      <c r="AU11">
         <v>9.3646064660836997E-2</v>
       </c>
-      <c r="AU11">
+      <c r="AV11">
         <v>0.13777650040962999</v>
       </c>
-      <c r="AV11">
+      <c r="AW11">
         <v>0.76857743492953301</v>
       </c>
-      <c r="AW11">
+      <c r="AX11">
         <v>40.493914157591277</v>
       </c>
-      <c r="AX11">
+      <c r="AY11">
         <v>10.310310421286029</v>
       </c>
-      <c r="AY11">
+      <c r="AZ11">
         <v>41.085689395739287</v>
       </c>
-      <c r="AZ11">
+      <c r="BA11">
         <v>75.056825552514596</v>
       </c>
-      <c r="BA11">
+      <c r="BB11">
         <v>58.967548038150937</v>
       </c>
-      <c r="BB11">
+      <c r="BC11">
         <v>146.04285750083369</v>
       </c>
-      <c r="BC11">
+      <c r="BD11">
         <v>8934.4686354817841</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -3216,52 +3253,55 @@
         <v>61.043387196046197</v>
       </c>
       <c r="AO12">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AP12">
         <v>59.642366282225701</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>56</v>
       </c>
-      <c r="AQ12">
+      <c r="AR12">
         <v>10.84</v>
       </c>
-      <c r="AR12">
+      <c r="AS12">
         <v>10.99</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>10.71</v>
       </c>
-      <c r="AT12">
+      <c r="AU12">
         <v>9.1234625564378002E-2</v>
       </c>
-      <c r="AU12">
+      <c r="AV12">
         <v>0.26756967149307198</v>
       </c>
-      <c r="AV12">
+      <c r="AW12">
         <v>0.64119570294255002</v>
       </c>
-      <c r="AW12">
+      <c r="AX12">
         <v>5.9191919191919196</v>
       </c>
-      <c r="AX12">
+      <c r="AY12">
         <v>2.3724461623412481</v>
       </c>
-      <c r="AY12">
+      <c r="AZ12">
         <v>6.6640776699029143</v>
       </c>
-      <c r="AZ12">
+      <c r="BA12">
         <v>76.13310580204778</v>
       </c>
-      <c r="BA12">
+      <c r="BB12">
         <v>22.71616431979518</v>
       </c>
-      <c r="BB12">
+      <c r="BC12">
         <v>52.933857808857809</v>
       </c>
-      <c r="BC12">
+      <c r="BD12">
         <v>3904.4780826237779</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -3383,52 +3423,55 @@
         <v>66.611449297139103</v>
       </c>
       <c r="AO13">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="AP13">
         <v>59.503575443596297</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
         <v>56</v>
       </c>
-      <c r="AQ13">
+      <c r="AR13">
         <v>10.42</v>
       </c>
-      <c r="AR13">
+      <c r="AS13">
         <v>10.52</v>
       </c>
-      <c r="AS13">
+      <c r="AT13">
         <v>10.33</v>
       </c>
-      <c r="AT13">
+      <c r="AU13">
         <v>0.21099748151397901</v>
       </c>
-      <c r="AU13">
+      <c r="AV13">
         <v>0.37037294140840799</v>
       </c>
-      <c r="AV13">
+      <c r="AW13">
         <v>0.418629577077612</v>
       </c>
-      <c r="AW13">
+      <c r="AX13">
         <v>10.08868826340945</v>
       </c>
-      <c r="AX13">
+      <c r="AY13">
         <v>3.1710013313046792</v>
       </c>
-      <c r="AY13">
+      <c r="AZ13">
         <v>5.2183725035478181</v>
       </c>
-      <c r="AZ13">
+      <c r="BA13">
         <v>96.605464020634841</v>
       </c>
-      <c r="BA13">
+      <c r="BB13">
         <v>39.303137534205497</v>
       </c>
-      <c r="BB13">
+      <c r="BC13">
         <v>52.763663739354222</v>
       </c>
-      <c r="BC13">
+      <c r="BD13">
         <v>16204.52017303787</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -3550,52 +3593,55 @@
         <v>56.762189993640902</v>
       </c>
       <c r="AO14">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="AP14">
         <v>60.401256378485598</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
         <v>56</v>
       </c>
-      <c r="AQ14">
+      <c r="AR14">
         <v>11.52</v>
       </c>
-      <c r="AR14">
+      <c r="AS14">
         <v>11.73</v>
       </c>
-      <c r="AS14">
+      <c r="AT14">
         <v>11.34</v>
       </c>
-      <c r="AT14">
+      <c r="AU14">
         <v>0.31107794791936999</v>
       </c>
-      <c r="AU14">
+      <c r="AV14">
         <v>0.29898780171295097</v>
       </c>
-      <c r="AV14">
+      <c r="AW14">
         <v>0.38993425036767898</v>
       </c>
-      <c r="AW14">
+      <c r="AX14">
         <v>17.637032495401598</v>
       </c>
-      <c r="AX14">
+      <c r="AY14">
         <v>3.6436478650500792</v>
       </c>
-      <c r="AY14">
+      <c r="AZ14">
         <v>5.3435091879075278</v>
       </c>
-      <c r="AZ14">
+      <c r="BA14">
         <v>106.552944448307</v>
       </c>
-      <c r="BA14">
+      <c r="BB14">
         <v>67.437717013888886</v>
       </c>
-      <c r="BB14">
+      <c r="BC14">
         <v>57.619806977647123</v>
       </c>
-      <c r="BC14">
+      <c r="BD14">
         <v>17519.264069264071</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -3717,52 +3763,55 @@
         <v>72.965151658575493</v>
       </c>
       <c r="AO15">
+        <v>0.75</v>
+      </c>
+      <c r="AP15">
         <v>57.240433887858899</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
         <v>56</v>
       </c>
-      <c r="AQ15">
+      <c r="AR15">
         <v>9.9499999999999993</v>
       </c>
-      <c r="AR15">
+      <c r="AS15">
         <v>9.99</v>
       </c>
-      <c r="AS15">
+      <c r="AT15">
         <v>9.91</v>
       </c>
-      <c r="AT15">
+      <c r="AU15">
         <v>0.12857933324111201</v>
       </c>
-      <c r="AU15">
+      <c r="AV15">
         <v>0.50504910776040901</v>
       </c>
-      <c r="AV15">
+      <c r="AW15">
         <v>0.36637155899847801</v>
       </c>
-      <c r="AW15">
+      <c r="AX15">
         <v>3.1886792452830188</v>
       </c>
-      <c r="AX15">
+      <c r="AY15">
         <v>1.7914622178606481</v>
       </c>
-      <c r="AY15">
+      <c r="AZ15">
         <v>2.3120907900480141</v>
       </c>
-      <c r="AZ15">
+      <c r="BA15">
         <v>29.61430876815492</v>
       </c>
-      <c r="BA15">
+      <c r="BB15">
         <v>12.527115858668861</v>
       </c>
-      <c r="BB15">
+      <c r="BC15">
         <v>16.709269397772321</v>
       </c>
-      <c r="BC15">
+      <c r="BD15">
         <v>511.9362950544845</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -3884,52 +3933,55 @@
         <v>28.453112802498001</v>
       </c>
       <c r="AO16">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="AP16">
         <v>62.356109770308699</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" t="s">
         <v>56</v>
       </c>
-      <c r="AQ16">
+      <c r="AR16">
         <v>14.55</v>
       </c>
-      <c r="AR16">
+      <c r="AS16">
         <v>14.93</v>
       </c>
-      <c r="AS16">
+      <c r="AT16">
         <v>14.22</v>
       </c>
-      <c r="AT16">
+      <c r="AU16">
         <v>0.105385900888548</v>
       </c>
-      <c r="AU16">
+      <c r="AV16">
         <v>0.16619438370002701</v>
       </c>
-      <c r="AV16">
+      <c r="AW16">
         <v>0.72841971541142503</v>
       </c>
-      <c r="AW16">
+      <c r="AX16">
         <v>28.01433021806854</v>
       </c>
-      <c r="AX16">
+      <c r="AY16">
         <v>8.7141452623817148</v>
       </c>
-      <c r="AY16">
+      <c r="AZ16">
         <v>21.03709469979016</v>
       </c>
-      <c r="AZ16">
+      <c r="BA16">
         <v>93.0029357471699</v>
       </c>
-      <c r="BA16">
+      <c r="BB16">
         <v>52.918456569873207</v>
       </c>
-      <c r="BB16">
+      <c r="BC16">
         <v>73.83325878995177</v>
       </c>
-      <c r="BC16">
+      <c r="BD16">
         <v>16260.411985018731</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -4051,52 +4103,55 @@
         <v>67.537502819760903</v>
       </c>
       <c r="AO17">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="AP17">
         <v>59.376372191585602</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>56</v>
       </c>
-      <c r="AQ17">
+      <c r="AR17">
         <v>10.23</v>
       </c>
-      <c r="AR17">
+      <c r="AS17">
         <v>10.34</v>
       </c>
-      <c r="AS17">
+      <c r="AT17">
         <v>10.119999999999999</v>
       </c>
-      <c r="AT17">
+      <c r="AU17">
         <v>0.44291445668434598</v>
       </c>
-      <c r="AU17">
+      <c r="AV17">
         <v>0.261219910240718</v>
       </c>
-      <c r="AV17">
+      <c r="AW17">
         <v>0.29586563307493502</v>
       </c>
-      <c r="AW17">
+      <c r="AX17">
         <v>20.482704402515719</v>
       </c>
-      <c r="AX17">
+      <c r="AY17">
         <v>2.6266666666666669</v>
       </c>
-      <c r="AY17">
+      <c r="AZ17">
         <v>3.8572695035460991</v>
       </c>
-      <c r="AZ17">
+      <c r="BA17">
         <v>123.55784140631</v>
       </c>
-      <c r="BA17">
+      <c r="BB17">
         <v>35.648444617987757</v>
       </c>
-      <c r="BB17">
+      <c r="BC17">
         <v>45.071592737301771</v>
       </c>
-      <c r="BC17">
+      <c r="BD17">
         <v>2194.2894393741849</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>111</v>
       </c>
@@ -4218,52 +4273,55 @@
         <v>60.757907450743602</v>
       </c>
       <c r="AO18">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="AP18">
         <v>58.348420846546603</v>
       </c>
-      <c r="AP18" t="s">
+      <c r="AQ18" t="s">
         <v>56</v>
       </c>
-      <c r="AQ18">
+      <c r="AR18">
         <v>9.82</v>
       </c>
-      <c r="AR18">
+      <c r="AS18">
         <v>9.7799999999999994</v>
       </c>
-      <c r="AS18">
+      <c r="AT18">
         <v>9.85</v>
       </c>
-      <c r="AT18">
+      <c r="AU18">
         <v>0.26606407181946801</v>
       </c>
-      <c r="AU18">
+      <c r="AV18">
         <v>0.39968025579536398</v>
       </c>
-      <c r="AV18">
+      <c r="AW18">
         <v>0.33425567238516901</v>
       </c>
-      <c r="AW18">
+      <c r="AX18">
         <v>5.1758373205741623</v>
       </c>
-      <c r="AX18">
+      <c r="AY18">
         <v>1.8813314037626629</v>
       </c>
-      <c r="AY18">
+      <c r="AZ18">
         <v>2.6210221793635489</v>
       </c>
-      <c r="AZ18">
+      <c r="BA18">
         <v>87.505199907557198</v>
       </c>
-      <c r="BA18">
+      <c r="BB18">
         <v>16.483538461538458</v>
       </c>
-      <c r="BB18">
+      <c r="BC18">
         <v>58.763061074319353</v>
       </c>
-      <c r="BC18">
+      <c r="BD18">
         <v>2045.1585976627709</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -4385,52 +4443,55 @@
         <v>75.128670163227298</v>
       </c>
       <c r="AO19">
+        <v>0.751</v>
+      </c>
+      <c r="AP19">
         <v>57.830122400584898</v>
       </c>
-      <c r="AP19" t="s">
+      <c r="AQ19" t="s">
         <v>56</v>
       </c>
-      <c r="AQ19">
+      <c r="AR19">
         <v>10.01</v>
       </c>
-      <c r="AR19">
+      <c r="AS19">
         <v>10.1</v>
       </c>
-      <c r="AS19">
+      <c r="AT19">
         <v>9.92</v>
       </c>
-      <c r="AT19">
+      <c r="AU19">
         <v>0.10001605394124299</v>
       </c>
-      <c r="AU19">
+      <c r="AV19">
         <v>0.44357039653234898</v>
       </c>
-      <c r="AV19">
+      <c r="AW19">
         <v>0.456413549526409</v>
       </c>
-      <c r="AW19">
+      <c r="AX19">
         <v>2.870967741935484</v>
       </c>
-      <c r="AX19">
+      <c r="AY19">
         <v>1.999276410998553</v>
       </c>
-      <c r="AY19">
+      <c r="AZ19">
         <v>3.1836506159014561</v>
       </c>
-      <c r="AZ19">
+      <c r="BA19">
         <v>32.120385232744781</v>
       </c>
-      <c r="BA19">
+      <c r="BB19">
         <v>24.686572566051389</v>
       </c>
-      <c r="BB19">
+      <c r="BC19">
         <v>21.000351741118539</v>
       </c>
-      <c r="BC19">
+      <c r="BD19">
         <v>282.24886447660288</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>116</v>
       </c>
@@ -4552,52 +4613,55 @@
         <v>65.100875523410707</v>
       </c>
       <c r="AO20">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AP20">
         <v>58.0208492403832</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>56</v>
       </c>
-      <c r="AQ20">
+      <c r="AR20">
         <v>9.4600000000000009</v>
       </c>
-      <c r="AR20">
+      <c r="AS20">
         <v>9.5</v>
       </c>
-      <c r="AS20">
+      <c r="AT20">
         <v>9.43</v>
       </c>
-      <c r="AT20">
+      <c r="AU20">
         <v>0.33720705016463298</v>
       </c>
-      <c r="AU20">
+      <c r="AV20">
         <v>0.34321131125314702</v>
       </c>
-      <c r="AV20">
+      <c r="AW20">
         <v>0.31958163858222</v>
       </c>
-      <c r="AW20">
+      <c r="AX20">
         <v>7.7035398230088497</v>
       </c>
-      <c r="AX20">
+      <c r="AY20">
         <v>2.4141689373297002</v>
       </c>
-      <c r="AY20">
+      <c r="AZ20">
         <v>3.027522935779817</v>
       </c>
-      <c r="AZ20">
+      <c r="BA20">
         <v>157.1275129236071</v>
       </c>
-      <c r="BA20">
+      <c r="BB20">
         <v>28.409142212189622</v>
       </c>
-      <c r="BB20">
+      <c r="BC20">
         <v>35.155151515151523</v>
       </c>
-      <c r="BC20">
+      <c r="BD20">
         <v>421.59661644197729</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -4719,52 +4783,55 @@
         <v>77.301427970080596</v>
       </c>
       <c r="AO21">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="AP21">
         <v>56.946189518685102</v>
       </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
         <v>56</v>
       </c>
-      <c r="AQ21">
+      <c r="AR21">
         <v>9.56</v>
       </c>
-      <c r="AR21">
+      <c r="AS21">
         <v>9.6199999999999992</v>
       </c>
-      <c r="AS21">
+      <c r="AT21">
         <v>9.51</v>
       </c>
-      <c r="AT21">
+      <c r="AU21">
         <v>0.26609195402298902</v>
       </c>
-      <c r="AU21">
+      <c r="AV21">
         <v>0.47528735632183899</v>
       </c>
-      <c r="AV21">
+      <c r="AW21">
         <v>0.25862068965517199</v>
       </c>
-      <c r="AW21">
+      <c r="AX21">
         <v>3.9016853932584268</v>
       </c>
-      <c r="AX21">
+      <c r="AY21">
         <v>1.826951399116348</v>
       </c>
-      <c r="AY21">
+      <c r="AZ21">
         <v>1.882845188284519</v>
       </c>
-      <c r="AZ21">
+      <c r="BA21">
         <v>72.606191504679629</v>
       </c>
-      <c r="BA21">
+      <c r="BB21">
         <v>16.65336557839581</v>
       </c>
-      <c r="BB21">
+      <c r="BC21">
         <v>11.33259259259259</v>
       </c>
-      <c r="BC21">
+      <c r="BD21">
         <v>891.88327032136101</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>119</v>
       </c>
@@ -4886,52 +4953,55 @@
         <v>58.972357198300401</v>
       </c>
       <c r="AO22">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AP22">
         <v>60.003463105837497</v>
       </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>56</v>
       </c>
-      <c r="AQ22">
+      <c r="AR22">
         <v>11.06</v>
       </c>
-      <c r="AR22">
+      <c r="AS22">
         <v>11.29</v>
       </c>
-      <c r="AS22">
+      <c r="AT22">
         <v>10.85</v>
       </c>
-      <c r="AT22">
+      <c r="AU22">
         <v>0.239396598554177</v>
       </c>
-      <c r="AU22">
+      <c r="AV22">
         <v>0.37499477664953401</v>
       </c>
-      <c r="AV22">
+      <c r="AW22">
         <v>0.38560862479628899</v>
       </c>
-      <c r="AW22">
+      <c r="AX22">
         <v>11.024374599101989</v>
       </c>
-      <c r="AX22">
+      <c r="AY22">
         <v>2.9326797385620909</v>
       </c>
-      <c r="AY22">
+      <c r="AZ22">
         <v>3.9850295091406358</v>
       </c>
-      <c r="AZ22">
+      <c r="BA22">
         <v>94.270844242741603</v>
       </c>
-      <c r="BA22">
+      <c r="BB22">
         <v>33.731334967684418</v>
       </c>
-      <c r="BB22">
+      <c r="BC22">
         <v>57.233961855223242</v>
       </c>
-      <c r="BC22">
+      <c r="BD22">
         <v>5745.8196181698486</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -5053,52 +5123,55 @@
         <v>86.0478889923005</v>
       </c>
       <c r="AO23">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="AP23">
         <v>55.471023667867598</v>
       </c>
-      <c r="AP23" t="s">
+      <c r="AQ23" t="s">
         <v>123</v>
       </c>
-      <c r="AQ23">
+      <c r="AR23">
         <v>8.8699999999999992</v>
       </c>
-      <c r="AR23">
+      <c r="AS23">
         <v>8.92</v>
       </c>
-      <c r="AS23">
+      <c r="AT23">
         <v>8.82</v>
       </c>
-      <c r="AT23">
+      <c r="AU23">
         <v>0.25690721649484499</v>
       </c>
-      <c r="AU23">
+      <c r="AV23">
         <v>0.510515463917526</v>
       </c>
-      <c r="AV23">
+      <c r="AW23">
         <v>0.23257731958762901</v>
       </c>
-      <c r="AW23">
+      <c r="AX23">
         <v>2.9808612440191391</v>
       </c>
-      <c r="AX23">
+      <c r="AY23">
         <v>1.672972972972973</v>
       </c>
-      <c r="AY23">
+      <c r="AZ23">
         <v>1.8862876254180601</v>
       </c>
-      <c r="AZ23">
+      <c r="BA23">
         <v>25.985553772070631</v>
       </c>
-      <c r="BA23">
+      <c r="BB23">
         <v>6.2213247172859463</v>
       </c>
-      <c r="BB23">
+      <c r="BC23">
         <v>6.1932624113475176</v>
       </c>
-      <c r="BC23">
+      <c r="BD23">
         <v>196.9622128920721</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>125</v>
       </c>
@@ -5220,52 +5293,55 @@
         <v>78.251306021446197</v>
       </c>
       <c r="AO24">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="AP24">
         <v>56.275505630061701</v>
       </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" t="s">
         <v>123</v>
       </c>
-      <c r="AQ24">
+      <c r="AR24">
         <v>8.9</v>
       </c>
-      <c r="AR24">
+      <c r="AS24">
         <v>8.92</v>
       </c>
-      <c r="AS24">
+      <c r="AT24">
         <v>8.8900000000000023</v>
       </c>
-      <c r="AT24">
+      <c r="AU24">
         <v>0.29329173166926698</v>
       </c>
-      <c r="AU24">
+      <c r="AV24">
         <v>0.43369734789391601</v>
       </c>
-      <c r="AV24">
+      <c r="AW24">
         <v>0.27301092043681802</v>
       </c>
-      <c r="AW24">
+      <c r="AX24">
         <v>5.2710280373831777</v>
       </c>
-      <c r="AX24">
+      <c r="AY24">
         <v>1.7447698744769879</v>
       </c>
-      <c r="AY24">
+      <c r="AZ24">
         <v>1.966292134831461</v>
       </c>
-      <c r="AZ24">
+      <c r="BA24">
         <v>86.212765957446805</v>
       </c>
-      <c r="BA24">
+      <c r="BB24">
         <v>16.286570743405271</v>
       </c>
-      <c r="BB24">
+      <c r="BC24">
         <v>13.68380952380952</v>
       </c>
-      <c r="BC24">
+      <c r="BD24">
         <v>125.89359035311411</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -5387,52 +5463,55 @@
         <v>75.616016427104711</v>
       </c>
       <c r="AO25">
+        <v>0.749</v>
+      </c>
+      <c r="AP25">
         <v>56.706537831815297</v>
       </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
         <v>56</v>
       </c>
-      <c r="AQ25">
+      <c r="AR25">
         <v>9.92</v>
       </c>
-      <c r="AR25">
+      <c r="AS25">
         <v>9.9</v>
       </c>
-      <c r="AS25">
+      <c r="AT25">
         <v>9.94</v>
       </c>
-      <c r="AT25">
+      <c r="AU25">
         <v>6.4748201438849004E-2</v>
       </c>
-      <c r="AU25">
+      <c r="AV25">
         <v>0.61870503597122295</v>
       </c>
-      <c r="AV25">
+      <c r="AW25">
         <v>0.31654676258992798</v>
       </c>
-      <c r="AW25">
+      <c r="AX25">
         <v>1.6363636363636369</v>
       </c>
-      <c r="AX25">
+      <c r="AY25">
         <v>1.7373737373737379</v>
       </c>
-      <c r="AY25">
+      <c r="AZ25">
         <v>2.0465116279069768</v>
       </c>
-      <c r="AZ25">
+      <c r="BA25">
         <v>21.888888888888889</v>
       </c>
-      <c r="BA25">
+      <c r="BB25">
         <v>11.127906976744191</v>
       </c>
-      <c r="BB25">
+      <c r="BC25">
         <v>10.02272727272727</v>
       </c>
-      <c r="BC25">
+      <c r="BD25">
         <v>275.80246913580243</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -5554,52 +5633,55 @@
         <v>55.236971606874</v>
       </c>
       <c r="AO26">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="AP26">
         <v>60.906430541205893</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>56</v>
       </c>
-      <c r="AQ26">
+      <c r="AR26">
         <v>11.49</v>
       </c>
-      <c r="AR26">
+      <c r="AS26">
         <v>11.75</v>
       </c>
-      <c r="AS26">
+      <c r="AT26">
         <v>11.27</v>
       </c>
-      <c r="AT26">
+      <c r="AU26">
         <v>8.6407822181798002E-2</v>
       </c>
-      <c r="AU26">
+      <c r="AV26">
         <v>0.44454550622477401</v>
       </c>
-      <c r="AV26">
+      <c r="AW26">
         <v>0.469046671593428</v>
       </c>
-      <c r="AW26">
+      <c r="AX26">
         <v>4.3428571428571443</v>
       </c>
-      <c r="AX26">
+      <c r="AY26">
         <v>3.3940972222222219</v>
       </c>
-      <c r="AY26">
+      <c r="AZ26">
         <v>3.748750567923671</v>
       </c>
-      <c r="AZ26">
+      <c r="BA26">
         <v>33.20953947368421</v>
       </c>
-      <c r="BA26">
+      <c r="BB26">
         <v>32.555115089514068</v>
       </c>
-      <c r="BB26">
+      <c r="BC26">
         <v>40.425584777602722</v>
       </c>
-      <c r="BC26">
+      <c r="BD26">
         <v>8362.6104303220291</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>132</v>
       </c>
@@ -5721,52 +5803,55 @@
         <v>69.100414638543398</v>
       </c>
       <c r="AO27">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="AP27">
         <v>57.680079760259503</v>
       </c>
-      <c r="AP27" t="s">
+      <c r="AQ27" t="s">
         <v>56</v>
       </c>
-      <c r="AQ27">
+      <c r="AR27">
         <v>10.3</v>
       </c>
-      <c r="AR27">
+      <c r="AS27">
         <v>10.32</v>
       </c>
-      <c r="AS27">
+      <c r="AT27">
         <v>10.29</v>
       </c>
-      <c r="AT27">
+      <c r="AU27">
         <v>8.9219330855019E-2</v>
       </c>
-      <c r="AU27">
+      <c r="AV27">
         <v>0.620817843866171</v>
       </c>
-      <c r="AV27">
+      <c r="AW27">
         <v>0.28996282527881001</v>
       </c>
-      <c r="AW27">
+      <c r="AX27">
         <v>2.285714285714286</v>
       </c>
-      <c r="AX27">
+      <c r="AY27">
         <v>2.0874999999999999</v>
       </c>
-      <c r="AY27">
+      <c r="AZ27">
         <v>2.166666666666667</v>
       </c>
-      <c r="AZ27">
+      <c r="BA27">
         <v>51.71875</v>
       </c>
-      <c r="BA27">
+      <c r="BB27">
         <v>9.1646706586826348</v>
       </c>
-      <c r="BB27">
+      <c r="BC27">
         <v>21.294871794871799</v>
       </c>
-      <c r="BC27">
+      <c r="BD27">
         <v>1009.826203208556</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -5888,52 +5973,55 @@
         <v>67.716191782530103</v>
       </c>
       <c r="AO28">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="AP28">
         <v>58.414189570669798</v>
       </c>
-      <c r="AP28" t="s">
+      <c r="AQ28" t="s">
         <v>56</v>
       </c>
-      <c r="AQ28">
+      <c r="AR28">
         <v>9.5500000000000007</v>
       </c>
-      <c r="AR28">
+      <c r="AS28">
         <v>9.74</v>
       </c>
-      <c r="AS28">
+      <c r="AT28">
         <v>9.3699999999999992</v>
       </c>
-      <c r="AT28">
+      <c r="AU28">
         <v>0.16166345359405099</v>
       </c>
-      <c r="AU28">
+      <c r="AV28">
         <v>0.51583585789038799</v>
       </c>
-      <c r="AV28">
+      <c r="AW28">
         <v>0.32250068851556102</v>
       </c>
-      <c r="AW28">
+      <c r="AX28">
         <v>3.0894736842105259</v>
       </c>
-      <c r="AX28">
+      <c r="AY28">
         <v>1.886203423967775</v>
       </c>
-      <c r="AY28">
+      <c r="AZ28">
         <v>2.7748815165876781</v>
       </c>
-      <c r="AZ28">
+      <c r="BA28">
         <v>31.11584327086883</v>
       </c>
-      <c r="BA28">
+      <c r="BB28">
         <v>13.194340630005341</v>
       </c>
-      <c r="BB28">
+      <c r="BC28">
         <v>43.427839453458581</v>
       </c>
-      <c r="BC28">
+      <c r="BD28">
         <v>858.38757085870247</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -6055,52 +6143,55 @@
         <v>54.951968035365098</v>
       </c>
       <c r="AO29">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AP29">
         <v>60.412306083606303</v>
       </c>
-      <c r="AP29" t="s">
+      <c r="AQ29" t="s">
         <v>56</v>
       </c>
-      <c r="AQ29">
+      <c r="AR29">
         <v>11.3</v>
       </c>
-      <c r="AR29">
+      <c r="AS29">
         <v>11.44</v>
       </c>
-      <c r="AS29">
+      <c r="AT29">
         <v>11.16</v>
       </c>
-      <c r="AT29">
+      <c r="AU29">
         <v>0.23852930380521201</v>
       </c>
-      <c r="AU29">
+      <c r="AV29">
         <v>0.31882417716872602</v>
       </c>
-      <c r="AV29">
+      <c r="AW29">
         <v>0.442646519026062</v>
       </c>
-      <c r="AW29">
+      <c r="AX29">
         <v>20.307291666666671</v>
       </c>
-      <c r="AX29">
+      <c r="AY29">
         <v>3.918421052631579</v>
       </c>
-      <c r="AY29">
+      <c r="AZ29">
         <v>7.4477611940298516</v>
       </c>
-      <c r="AZ29">
+      <c r="BA29">
         <v>70.560015388561169</v>
       </c>
-      <c r="BA29">
+      <c r="BB29">
         <v>35.883143049026202</v>
       </c>
-      <c r="BB29">
+      <c r="BC29">
         <v>68.680602584479303</v>
       </c>
-      <c r="BC29">
+      <c r="BD29">
         <v>6818.4140297369422</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>142</v>
       </c>
@@ -6222,52 +6313,55 @@
         <v>68.811231251316002</v>
       </c>
       <c r="AO30">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="AP30">
         <v>57.801202342927603</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AQ30" t="s">
         <v>56</v>
       </c>
-      <c r="AQ30">
+      <c r="AR30">
         <v>9.75</v>
       </c>
-      <c r="AR30">
+      <c r="AS30">
         <v>9.86</v>
       </c>
-      <c r="AS30">
+      <c r="AT30">
         <v>9.64</v>
       </c>
-      <c r="AT30">
+      <c r="AU30">
         <v>0.17204772767152099</v>
       </c>
-      <c r="AU30">
+      <c r="AV30">
         <v>0.43913405860677301</v>
       </c>
-      <c r="AV30">
+      <c r="AW30">
         <v>0.388818213721706</v>
       </c>
-      <c r="AW30">
+      <c r="AX30">
         <v>5.3433242506812002</v>
       </c>
-      <c r="AX30">
+      <c r="AY30">
         <v>2.3272114378705102</v>
       </c>
-      <c r="AY30">
+      <c r="AZ30">
         <v>3.5047449584816128</v>
       </c>
-      <c r="AZ30">
+      <c r="BA30">
         <v>62.434344722080567</v>
       </c>
-      <c r="BA30">
+      <c r="BB30">
         <v>29.45502222666201</v>
       </c>
-      <c r="BB30">
+      <c r="BC30">
         <v>23.155243414001241</v>
       </c>
-      <c r="BC30">
+      <c r="BD30">
         <v>1826.9945654655889</v>
       </c>
     </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>145</v>
       </c>
@@ -6389,52 +6483,55 @@
         <v>71.118236472945895</v>
       </c>
       <c r="AO31">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="AP31">
         <v>57.629437593894899</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AQ31" t="s">
         <v>56</v>
       </c>
-      <c r="AQ31">
+      <c r="AR31">
         <v>10.039999999999999</v>
       </c>
-      <c r="AR31">
+      <c r="AS31">
         <v>10.130000000000001</v>
       </c>
-      <c r="AS31">
+      <c r="AT31">
         <v>9.9499999999999993</v>
       </c>
-      <c r="AT31">
+      <c r="AU31">
         <v>0.26340326340326298</v>
       </c>
-      <c r="AU31">
+      <c r="AV31">
         <v>0.37606837606837601</v>
       </c>
-      <c r="AV31">
+      <c r="AW31">
         <v>0.36052836052836101</v>
       </c>
-      <c r="AW31">
+      <c r="AX31">
         <v>3.896551724137931</v>
       </c>
-      <c r="AX31">
+      <c r="AY31">
         <v>2.008298755186722</v>
       </c>
-      <c r="AY31">
+      <c r="AZ31">
         <v>3.0129870129870131</v>
       </c>
-      <c r="AZ31">
+      <c r="BA31">
         <v>30.454277286135689</v>
       </c>
-      <c r="BA31">
+      <c r="BB31">
         <v>20.706611570247929</v>
       </c>
-      <c r="BB31">
+      <c r="BC31">
         <v>26.449353448275861</v>
       </c>
-      <c r="BC31">
+      <c r="BD31">
         <v>1454.2594385285579</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>148</v>
       </c>
@@ -6556,52 +6653,55 @@
         <v>68.511846271427004</v>
       </c>
       <c r="AO32">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AP32">
         <v>58.901880827879893</v>
       </c>
-      <c r="AP32" t="s">
+      <c r="AQ32" t="s">
         <v>56</v>
       </c>
-      <c r="AQ32">
+      <c r="AR32">
         <v>10.14</v>
       </c>
-      <c r="AR32">
+      <c r="AS32">
         <v>10.26</v>
       </c>
-      <c r="AS32">
+      <c r="AT32">
         <v>10.029999999999999</v>
       </c>
-      <c r="AT32">
+      <c r="AU32">
         <v>0.14428376888658301</v>
       </c>
-      <c r="AU32">
+      <c r="AV32">
         <v>0.52752739770442902</v>
       </c>
-      <c r="AV32">
+      <c r="AW32">
         <v>0.32818883340898802</v>
       </c>
-      <c r="AW32">
+      <c r="AX32">
         <v>3.9035087719298249</v>
       </c>
-      <c r="AX32">
+      <c r="AY32">
         <v>2.1612646121147709</v>
       </c>
-      <c r="AY32">
+      <c r="AZ32">
         <v>2.1833477135461599</v>
       </c>
-      <c r="AZ32">
+      <c r="BA32">
         <v>63.685842696629223</v>
       </c>
-      <c r="BA32">
+      <c r="BB32">
         <v>20.631714812538419</v>
       </c>
-      <c r="BB32">
+      <c r="BC32">
         <v>18.360205492985578</v>
       </c>
-      <c r="BC32">
+      <c r="BD32">
         <v>3721.7278457545422</v>
       </c>
     </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -6723,52 +6823,55 @@
         <v>74.435389988358594</v>
       </c>
       <c r="AO33">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AP33">
         <v>58.387070442160599</v>
       </c>
-      <c r="AP33" t="s">
+      <c r="AQ33" t="s">
         <v>56</v>
       </c>
-      <c r="AQ33">
+      <c r="AR33">
         <v>10.130000000000001</v>
       </c>
-      <c r="AR33">
+      <c r="AS33">
         <v>10.26</v>
       </c>
-      <c r="AS33">
+      <c r="AT33">
         <v>10.02</v>
       </c>
-      <c r="AT33">
+      <c r="AU33">
         <v>0.101994486784498</v>
       </c>
-      <c r="AU33">
+      <c r="AV33">
         <v>0.68671963677639003</v>
       </c>
-      <c r="AV33">
+      <c r="AW33">
         <v>0.21128587643911101</v>
       </c>
-      <c r="AW33">
+      <c r="AX33">
         <v>2.4861660079051382</v>
       </c>
-      <c r="AX33">
+      <c r="AY33">
         <v>2.2598719316969049</v>
       </c>
-      <c r="AY33">
+      <c r="AZ33">
         <v>2.322638146167558</v>
       </c>
-      <c r="AZ33">
+      <c r="BA33">
         <v>13.21303656597774</v>
       </c>
-      <c r="BA33">
+      <c r="BB33">
         <v>14.16576151121606</v>
       </c>
-      <c r="BB33">
+      <c r="BC33">
         <v>12.345356868764391</v>
       </c>
-      <c r="BC33">
+      <c r="BD33">
         <v>4048.5380116959059</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>153</v>
       </c>
@@ -6890,52 +6993,55 @@
         <v>72.696543334804602</v>
       </c>
       <c r="AO34">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="AP34">
         <v>57.761019524263702</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AQ34" t="s">
         <v>56</v>
       </c>
-      <c r="AQ34">
+      <c r="AR34">
         <v>9.1300000000000008</v>
       </c>
-      <c r="AR34">
+      <c r="AS34">
         <v>9.23</v>
       </c>
-      <c r="AS34">
+      <c r="AT34">
         <v>9.0299999999999994</v>
       </c>
-      <c r="AT34">
+      <c r="AU34">
         <v>0.11579387020426</v>
       </c>
-      <c r="AU34">
+      <c r="AV34">
         <v>0.55365062948746002</v>
       </c>
-      <c r="AV34">
+      <c r="AW34">
         <v>0.33055550030828001</v>
       </c>
-      <c r="AW34">
+      <c r="AX34">
         <v>2.4157676348547721</v>
       </c>
-      <c r="AX34">
+      <c r="AY34">
         <v>1.7022564667033571</v>
       </c>
-      <c r="AY34">
+      <c r="AZ34">
         <v>2.0756837766953922</v>
       </c>
-      <c r="AZ34">
+      <c r="BA34">
         <v>24.894194434902101</v>
       </c>
-      <c r="BA34">
+      <c r="BB34">
         <v>11.44509106584761</v>
       </c>
-      <c r="BB34">
+      <c r="BC34">
         <v>18.312214199759332</v>
       </c>
-      <c r="BC34">
+      <c r="BD34">
         <v>16181.57411656723</v>
       </c>
     </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>157</v>
       </c>
@@ -7057,52 +7163,55 @@
         <v>63.8334689239272</v>
       </c>
       <c r="AO35">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="AP35">
         <v>59.4697168090118</v>
       </c>
-      <c r="AP35" t="s">
+      <c r="AQ35" t="s">
         <v>56</v>
       </c>
-      <c r="AQ35">
+      <c r="AR35">
         <v>10.220000000000001</v>
       </c>
-      <c r="AR35">
+      <c r="AS35">
         <v>10.41</v>
       </c>
-      <c r="AS35">
+      <c r="AT35">
         <v>10.050000000000001</v>
       </c>
-      <c r="AT35">
+      <c r="AU35">
         <v>0.27928179365522399</v>
       </c>
-      <c r="AU35">
+      <c r="AV35">
         <v>0.38381730150832999</v>
       </c>
-      <c r="AV35">
+      <c r="AW35">
         <v>0.33690090483644602</v>
       </c>
-      <c r="AW35">
+      <c r="AX35">
         <v>10.14636296840559</v>
       </c>
-      <c r="AX35">
+      <c r="AY35">
         <v>2.4747672326109069</v>
       </c>
-      <c r="AY35">
+      <c r="AZ35">
         <v>3.0913780944957869</v>
       </c>
-      <c r="AZ35">
+      <c r="BA35">
         <v>161.78431770124271</v>
       </c>
-      <c r="BA35">
+      <c r="BB35">
         <v>27.31146590789335</v>
       </c>
-      <c r="BB35">
+      <c r="BC35">
         <v>39.069683399166777</v>
       </c>
-      <c r="BC35">
+      <c r="BD35">
         <v>10318.274175341779</v>
       </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>160</v>
       </c>
@@ -7224,52 +7333,55 @@
         <v>78.11392105885129</v>
       </c>
       <c r="AO36">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="AP36">
         <v>56.2074585693302</v>
       </c>
-      <c r="AP36" t="s">
+      <c r="AQ36" t="s">
         <v>123</v>
       </c>
-      <c r="AQ36">
+      <c r="AR36">
         <v>8.8900000000000023</v>
       </c>
-      <c r="AR36">
+      <c r="AS36">
         <v>9.0500000000000007</v>
       </c>
-      <c r="AS36">
+      <c r="AT36">
         <v>8.75</v>
       </c>
-      <c r="AT36">
+      <c r="AU36">
         <v>0.20772303595206401</v>
       </c>
-      <c r="AU36">
+      <c r="AV36">
         <v>0.49933422103861502</v>
       </c>
-      <c r="AV36">
+      <c r="AW36">
         <v>0.29294274300932099</v>
       </c>
-      <c r="AW36">
+      <c r="AX36">
         <v>2.736842105263158</v>
       </c>
-      <c r="AX36">
+      <c r="AY36">
         <v>1.8292682926829269</v>
       </c>
-      <c r="AY36">
+      <c r="AZ36">
         <v>2.558139534883721</v>
       </c>
-      <c r="AZ36">
+      <c r="BA36">
         <v>15.410256410256411</v>
       </c>
-      <c r="BA36">
+      <c r="BB36">
         <v>4.0826666666666673</v>
       </c>
-      <c r="BB36">
+      <c r="BC36">
         <v>2.586363636363636</v>
       </c>
-      <c r="BC36">
+      <c r="BD36">
         <v>213.80331753554501</v>
       </c>
     </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -7391,52 +7503,55 @@
         <v>65.116067087992207</v>
       </c>
       <c r="AO37">
+        <v>0.74</v>
+      </c>
+      <c r="AP37">
         <v>59.115283204612602</v>
       </c>
-      <c r="AP37" t="s">
+      <c r="AQ37" t="s">
         <v>56</v>
       </c>
-      <c r="AQ37">
+      <c r="AR37">
         <v>9.98</v>
       </c>
-      <c r="AR37">
+      <c r="AS37">
         <v>10.17</v>
       </c>
-      <c r="AS37">
+      <c r="AT37">
         <v>9.81</v>
       </c>
-      <c r="AT37">
+      <c r="AU37">
         <v>0.41122984626921599</v>
       </c>
-      <c r="AU37">
+      <c r="AV37">
         <v>0.31931946006749201</v>
       </c>
-      <c r="AV37">
+      <c r="AW37">
         <v>0.269450693663292</v>
       </c>
-      <c r="AW37">
+      <c r="AX37">
         <v>23.972677595628419</v>
       </c>
-      <c r="AX37">
+      <c r="AY37">
         <v>2.9829246935201401</v>
       </c>
-      <c r="AY37">
+      <c r="AZ37">
         <v>4.5590800951625701</v>
       </c>
-      <c r="AZ37">
+      <c r="BA37">
         <v>112.4311602461819</v>
       </c>
-      <c r="BA37">
+      <c r="BB37">
         <v>16.554528108028769</v>
       </c>
-      <c r="BB37">
+      <c r="BC37">
         <v>38.469646895112191</v>
       </c>
-      <c r="BC37">
+      <c r="BD37">
         <v>1377.586497890295</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>166</v>
       </c>
@@ -7558,52 +7673,55 @@
         <v>76.614710676446606</v>
       </c>
       <c r="AO38">
+        <v>0.69</v>
+      </c>
+      <c r="AP38">
         <v>56.849828128296799</v>
       </c>
-      <c r="AP38" t="s">
+      <c r="AQ38" t="s">
         <v>56</v>
       </c>
-      <c r="AQ38">
+      <c r="AR38">
         <v>8.51</v>
       </c>
-      <c r="AR38">
+      <c r="AS38">
         <v>8.5500000000000025</v>
       </c>
-      <c r="AS38">
+      <c r="AT38">
         <v>8.48</v>
       </c>
-      <c r="AT38">
+      <c r="AU38">
         <v>0.24163150492264401</v>
       </c>
-      <c r="AU38">
+      <c r="AV38">
         <v>0.468354430379747</v>
       </c>
-      <c r="AV38">
+      <c r="AW38">
         <v>0.29001406469760899</v>
       </c>
-      <c r="AW38">
+      <c r="AX38">
         <v>3.3424124513618678</v>
       </c>
-      <c r="AX38">
+      <c r="AY38">
         <v>1.5857142857142861</v>
       </c>
-      <c r="AY38">
+      <c r="AZ38">
         <v>2.0176125244618399</v>
       </c>
-      <c r="AZ38">
+      <c r="BA38">
         <v>35.254947613504072</v>
       </c>
-      <c r="BA38">
+      <c r="BB38">
         <v>10.79159159159159</v>
       </c>
-      <c r="BB38">
+      <c r="BC38">
         <v>11.01066925315228</v>
       </c>
-      <c r="BC38">
+      <c r="BD38">
         <v>199.41570350151409</v>
       </c>
     </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -7725,52 +7843,55 @@
         <v>64.345988183113704</v>
       </c>
       <c r="AO39">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AP39">
         <v>59.157494888690501</v>
       </c>
-      <c r="AP39" t="s">
+      <c r="AQ39" t="s">
         <v>56</v>
       </c>
-      <c r="AQ39">
+      <c r="AR39">
         <v>11.23</v>
       </c>
-      <c r="AR39">
+      <c r="AS39">
         <v>11.49</v>
       </c>
-      <c r="AS39">
+      <c r="AT39">
         <v>11</v>
       </c>
-      <c r="AT39">
+      <c r="AU39">
         <v>7.3100331155463993E-2</v>
       </c>
-      <c r="AU39">
+      <c r="AV39">
         <v>0.33319162266177399</v>
       </c>
-      <c r="AV39">
+      <c r="AW39">
         <v>0.59370804618276196</v>
       </c>
-      <c r="AW39">
+      <c r="AX39">
         <v>4.9954128440366983</v>
       </c>
-      <c r="AX39">
+      <c r="AY39">
         <v>3.6641240157480319</v>
       </c>
-      <c r="AY39">
+      <c r="AZ39">
         <v>9.2517433751743372</v>
       </c>
-      <c r="AZ39">
+      <c r="BA39">
         <v>78.349250076522793</v>
       </c>
-      <c r="BA39">
+      <c r="BB39">
         <v>30.38587066013028</v>
       </c>
-      <c r="BB39">
+      <c r="BC39">
         <v>61.931861008517373</v>
       </c>
-      <c r="BC39">
+      <c r="BD39">
         <v>2028.5093963553529</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>172</v>
       </c>
@@ -7886,52 +8007,55 @@
         <v>72.2793487574979</v>
       </c>
       <c r="AO40">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="AP40">
         <v>56.246431508207799</v>
       </c>
-      <c r="AP40" t="s">
+      <c r="AQ40" t="s">
         <v>123</v>
       </c>
-      <c r="AQ40">
+      <c r="AR40">
         <v>9.06</v>
       </c>
-      <c r="AR40">
+      <c r="AS40">
         <v>9.07</v>
       </c>
-      <c r="AS40">
+      <c r="AT40">
         <v>9.06</v>
       </c>
-      <c r="AT40">
+      <c r="AU40">
         <v>9.7130242825607005E-2</v>
       </c>
-      <c r="AU40">
+      <c r="AV40">
         <v>0.52317880794701999</v>
       </c>
-      <c r="AV40">
+      <c r="AW40">
         <v>0.37969094922737301</v>
       </c>
-      <c r="AW40">
+      <c r="AX40">
         <v>1.9130434782608701</v>
       </c>
-      <c r="AX40">
+      <c r="AY40">
         <v>1.5</v>
       </c>
-      <c r="AY40">
+      <c r="AZ40">
         <v>1.7029702970297029</v>
       </c>
-      <c r="AZ40">
+      <c r="BA40">
         <v>24.61363636363636</v>
       </c>
-      <c r="BA40">
+      <c r="BB40">
         <v>10.31645569620253</v>
       </c>
-      <c r="BB40">
+      <c r="BC40">
         <v>5.6220930232558137</v>
       </c>
-      <c r="BC40">
+      <c r="BD40">
         <v>157.49933984684449</v>
       </c>
     </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>175</v>
       </c>
@@ -8053,52 +8177,55 @@
         <v>67.776024961651103</v>
       </c>
       <c r="AO41">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="AP41">
         <v>58.884671103290003</v>
       </c>
-      <c r="AP41" t="s">
+      <c r="AQ41" t="s">
         <v>56</v>
       </c>
-      <c r="AQ41">
+      <c r="AR41">
         <v>10.14</v>
       </c>
-      <c r="AR41">
+      <c r="AS41">
         <v>10.24</v>
       </c>
-      <c r="AS41">
+      <c r="AT41">
         <v>10.039999999999999</v>
       </c>
-      <c r="AT41">
+      <c r="AU41">
         <v>0.20878003874110601</v>
       </c>
-      <c r="AU41">
+      <c r="AV41">
         <v>0.452868184346292</v>
       </c>
-      <c r="AV41">
+      <c r="AW41">
         <v>0.33835177691260199</v>
       </c>
-      <c r="AW41">
+      <c r="AX41">
         <v>6.2419724770642198</v>
       </c>
-      <c r="AX41">
+      <c r="AY41">
         <v>2.2878597035171011</v>
       </c>
-      <c r="AY41">
+      <c r="AZ41">
         <v>2.6971411099220299</v>
       </c>
-      <c r="AZ41">
+      <c r="BA41">
         <v>78.365056035274662</v>
       </c>
-      <c r="BA41">
+      <c r="BB41">
         <v>24.906788633379922</v>
       </c>
-      <c r="BB41">
+      <c r="BC41">
         <v>31.985092393152708</v>
       </c>
-      <c r="BC41">
+      <c r="BD41">
         <v>1657.6306939773769</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -8220,52 +8347,55 @@
         <v>66.342234423092904</v>
       </c>
       <c r="AO42">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="AP42">
         <v>59.696562549845197</v>
       </c>
-      <c r="AP42" t="s">
+      <c r="AQ42" t="s">
         <v>56</v>
       </c>
-      <c r="AQ42">
+      <c r="AR42">
         <v>10.24</v>
       </c>
-      <c r="AR42">
+      <c r="AS42">
         <v>10.45</v>
       </c>
-      <c r="AS42">
+      <c r="AT42">
         <v>10.039999999999999</v>
       </c>
-      <c r="AT42">
+      <c r="AU42">
         <v>0.29519331243469199</v>
       </c>
-      <c r="AU42">
+      <c r="AV42">
         <v>0.43521421107628</v>
       </c>
-      <c r="AV42">
+      <c r="AW42">
         <v>0.26959247648902801</v>
       </c>
-      <c r="AW42">
+      <c r="AX42">
         <v>3.668831168831169</v>
       </c>
-      <c r="AX42">
+      <c r="AY42">
         <v>1.601923076923077</v>
       </c>
-      <c r="AY42">
+      <c r="AZ42">
         <v>1.6699029126213589</v>
       </c>
-      <c r="AZ42">
+      <c r="BA42">
         <v>46.355752212389383</v>
       </c>
-      <c r="BA42">
+      <c r="BB42">
         <v>8.1428571428571423</v>
       </c>
-      <c r="BB42">
+      <c r="BC42">
         <v>20.784883720930232</v>
       </c>
-      <c r="BC42">
+      <c r="BD42">
         <v>6016.4179104477607</v>
       </c>
     </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>181</v>
       </c>
@@ -8387,52 +8517,55 @@
         <v>69.641981363413393</v>
       </c>
       <c r="AO43">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="AP43">
         <v>56.537527807186102</v>
       </c>
-      <c r="AP43" t="s">
+      <c r="AQ43" t="s">
         <v>56</v>
       </c>
-      <c r="AQ43">
+      <c r="AR43">
         <v>9.27</v>
       </c>
-      <c r="AR43">
+      <c r="AS43">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AS43">
+      <c r="AT43">
         <v>9.24</v>
       </c>
-      <c r="AT43">
+      <c r="AU43">
         <v>0.20733104238258901</v>
       </c>
-      <c r="AU43">
+      <c r="AV43">
         <v>0.54295532646048095</v>
       </c>
-      <c r="AV43">
+      <c r="AW43">
         <v>0.24971363115692999</v>
       </c>
-      <c r="AW43">
+      <c r="AX43">
         <v>4.1136363636363642</v>
       </c>
-      <c r="AX43">
+      <c r="AY43">
         <v>1.858823529411765</v>
       </c>
-      <c r="AY43">
+      <c r="AZ43">
         <v>1.946428571428571</v>
       </c>
-      <c r="AZ43">
+      <c r="BA43">
         <v>10.259668508287289</v>
       </c>
-      <c r="BA43">
+      <c r="BB43">
         <v>21.12658227848101</v>
       </c>
-      <c r="BB43">
+      <c r="BC43">
         <v>20.330275229357799</v>
       </c>
-      <c r="BC43">
+      <c r="BD43">
         <v>167.2303550395423</v>
       </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>184</v>
       </c>
@@ -8554,52 +8687,55 @@
         <v>79.564633678557698</v>
       </c>
       <c r="AO44">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="AP44">
         <v>57.004700160935201</v>
       </c>
-      <c r="AP44" t="s">
+      <c r="AQ44" t="s">
         <v>56</v>
-      </c>
-      <c r="AQ44">
-        <v>9</v>
       </c>
       <c r="AR44">
         <v>9</v>
       </c>
       <c r="AS44">
+        <v>9</v>
+      </c>
+      <c r="AT44">
         <v>9.01</v>
       </c>
-      <c r="AT44">
+      <c r="AU44">
         <v>9.8228663446055006E-2</v>
       </c>
-      <c r="AU44">
+      <c r="AV44">
         <v>0.60762211486849205</v>
       </c>
-      <c r="AV44">
+      <c r="AW44">
         <v>0.29414922168545299</v>
       </c>
-      <c r="AW44">
+      <c r="AX44">
         <v>2.0333333333333332</v>
       </c>
-      <c r="AX44">
+      <c r="AY44">
         <v>1.642960812772134</v>
       </c>
-      <c r="AY44">
+      <c r="AZ44">
         <v>1.7967213114754099</v>
       </c>
-      <c r="AZ44">
+      <c r="BA44">
         <v>20.027322404371589</v>
       </c>
-      <c r="BA44">
+      <c r="BB44">
         <v>12.3613074204947</v>
       </c>
-      <c r="BB44">
+      <c r="BC44">
         <v>13.91605839416059</v>
       </c>
-      <c r="BC44">
+      <c r="BD44">
         <v>192.73580211813211</v>
       </c>
     </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>187</v>
       </c>
@@ -8721,52 +8857,55 @@
         <v>67.365939893930502</v>
       </c>
       <c r="AO45">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="AP45">
         <v>58.6043364173321</v>
       </c>
-      <c r="AP45" t="s">
+      <c r="AQ45" t="s">
         <v>56</v>
       </c>
-      <c r="AQ45">
+      <c r="AR45">
         <v>9.9600000000000009</v>
       </c>
-      <c r="AR45">
+      <c r="AS45">
         <v>10.02</v>
       </c>
-      <c r="AS45">
+      <c r="AT45">
         <v>9.9</v>
       </c>
-      <c r="AT45">
+      <c r="AU45">
         <v>0.10462776659959799</v>
       </c>
-      <c r="AU45">
+      <c r="AV45">
         <v>0.46031746031746001</v>
       </c>
-      <c r="AV45">
+      <c r="AW45">
         <v>0.43505477308294199</v>
       </c>
-      <c r="AW45">
+      <c r="AX45">
         <v>3.0993377483443711</v>
       </c>
-      <c r="AX45">
+      <c r="AY45">
         <v>1.9012003693444139</v>
       </c>
-      <c r="AY45">
+      <c r="AZ45">
         <v>2.9440242057488648</v>
       </c>
-      <c r="AZ45">
+      <c r="BA45">
         <v>53.237179487179489</v>
       </c>
-      <c r="BA45">
+      <c r="BB45">
         <v>15.641087906750849</v>
       </c>
-      <c r="BB45">
+      <c r="BC45">
         <v>28.50308324768756</v>
       </c>
-      <c r="BC45">
+      <c r="BD45">
         <v>3422.023476802683</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>189</v>
       </c>
@@ -8888,52 +9027,55 @@
         <v>61.296315827904301</v>
       </c>
       <c r="AO46">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="AP46">
         <v>59.470251205301103</v>
       </c>
-      <c r="AP46" t="s">
+      <c r="AQ46" t="s">
         <v>56</v>
       </c>
-      <c r="AQ46">
+      <c r="AR46">
         <v>10.72</v>
       </c>
-      <c r="AR46">
+      <c r="AS46">
         <v>10.96</v>
       </c>
-      <c r="AS46">
+      <c r="AT46">
         <v>10.5</v>
       </c>
-      <c r="AT46">
+      <c r="AU46">
         <v>0.23874720782413</v>
       </c>
-      <c r="AU46">
+      <c r="AV46">
         <v>0.29930831658746498</v>
       </c>
-      <c r="AV46">
+      <c r="AW46">
         <v>0.46194447558840501</v>
       </c>
-      <c r="AW46">
+      <c r="AX46">
         <v>22.515250101667348</v>
       </c>
-      <c r="AX46">
+      <c r="AY46">
         <v>4.4913291057331453</v>
       </c>
-      <c r="AY46">
+      <c r="AZ46">
         <v>8.8189676463324282</v>
       </c>
-      <c r="AZ46">
+      <c r="BA46">
         <v>125.1985550438002</v>
       </c>
-      <c r="BA46">
+      <c r="BB46">
         <v>40.992464954112577</v>
       </c>
-      <c r="BB46">
+      <c r="BC46">
         <v>71.708216646129713</v>
       </c>
-      <c r="BC46">
+      <c r="BD46">
         <v>5310.8070264765793</v>
       </c>
     </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>193</v>
       </c>
@@ -9055,52 +9197,55 @@
         <v>66.295707472178094</v>
       </c>
       <c r="AO47">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="AP47">
         <v>58.319162936528798</v>
       </c>
-      <c r="AP47" t="s">
+      <c r="AQ47" t="s">
         <v>56</v>
       </c>
-      <c r="AQ47">
+      <c r="AR47">
         <v>9.9</v>
       </c>
-      <c r="AR47">
+      <c r="AS47">
         <v>9.9700000000000006</v>
       </c>
-      <c r="AS47">
+      <c r="AT47">
         <v>9.83</v>
       </c>
-      <c r="AT47">
+      <c r="AU47">
         <v>0.18319394663480701</v>
       </c>
-      <c r="AU47">
+      <c r="AV47">
         <v>0.54520111509358804</v>
       </c>
-      <c r="AV47">
+      <c r="AW47">
         <v>0.27160493827160498</v>
       </c>
-      <c r="AW47">
+      <c r="AX47">
         <v>2.8571428571428572</v>
       </c>
-      <c r="AX47">
+      <c r="AY47">
         <v>1.9473684210526321</v>
       </c>
-      <c r="AY47">
+      <c r="AZ47">
         <v>2.0117994100294991</v>
       </c>
-      <c r="AZ47">
+      <c r="BA47">
         <v>32.002173913043478</v>
       </c>
-      <c r="BA47">
+      <c r="BB47">
         <v>13.818115412710011</v>
       </c>
-      <c r="BB47">
+      <c r="BC47">
         <v>15.121700879765401</v>
       </c>
-      <c r="BC47">
+      <c r="BD47">
         <v>1046.0326186549389</v>
       </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>195</v>
       </c>
@@ -9222,52 +9367,55 @@
         <v>63.217783752640699</v>
       </c>
       <c r="AO48">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="AP48">
         <v>58.562713186656197</v>
       </c>
-      <c r="AP48" t="s">
+      <c r="AQ48" t="s">
         <v>56</v>
       </c>
-      <c r="AQ48">
+      <c r="AR48">
         <v>9.75</v>
       </c>
-      <c r="AR48">
+      <c r="AS48">
         <v>9.89</v>
       </c>
-      <c r="AS48">
+      <c r="AT48">
         <v>9.6199999999999992</v>
       </c>
-      <c r="AT48">
+      <c r="AU48">
         <v>0.13594080905021</v>
       </c>
-      <c r="AU48">
+      <c r="AV48">
         <v>0.47194595608932299</v>
       </c>
-      <c r="AV48">
+      <c r="AW48">
         <v>0.39211323486046701</v>
       </c>
-      <c r="AW48">
+      <c r="AX48">
         <v>4.0763665594855309</v>
       </c>
-      <c r="AX48">
+      <c r="AY48">
         <v>2.1943163405210022</v>
       </c>
-      <c r="AY48">
+      <c r="AZ48">
         <v>2.9154873430336861</v>
       </c>
-      <c r="AZ48">
+      <c r="BA48">
         <v>63.533819759416289</v>
       </c>
-      <c r="BA48">
+      <c r="BB48">
         <v>22.495711445612042</v>
       </c>
-      <c r="BB48">
+      <c r="BC48">
         <v>34.434607233198882</v>
       </c>
-      <c r="BC48">
+      <c r="BD48">
         <v>1833.8273497721559</v>
       </c>
     </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>199</v>
       </c>
@@ -9389,52 +9537,55 @@
         <v>74.227974568573998</v>
       </c>
       <c r="AO49">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="AP49">
         <v>56.794825952117399</v>
       </c>
-      <c r="AP49" t="s">
+      <c r="AQ49" t="s">
         <v>56</v>
       </c>
-      <c r="AQ49">
+      <c r="AR49">
         <v>9.23</v>
       </c>
-      <c r="AR49">
+      <c r="AS49">
         <v>9.3699999999999992</v>
       </c>
-      <c r="AS49">
+      <c r="AT49">
         <v>9.1</v>
       </c>
-      <c r="AT49">
+      <c r="AU49">
         <v>0.41171003717472099</v>
       </c>
-      <c r="AU49">
+      <c r="AV49">
         <v>0.34758364312267698</v>
       </c>
-      <c r="AV49">
+      <c r="AW49">
         <v>0.24070631970260201</v>
       </c>
-      <c r="AW49">
+      <c r="AX49">
         <v>4.7127659574468082</v>
       </c>
-      <c r="AX49">
+      <c r="AY49">
         <v>1.3800738007380069</v>
       </c>
-      <c r="AY49">
+      <c r="AZ49">
         <v>1.7862068965517239</v>
       </c>
-      <c r="AZ49">
+      <c r="BA49">
         <v>36.87358916478555</v>
       </c>
-      <c r="BA49">
+      <c r="BB49">
         <v>6.7914438502673802</v>
       </c>
-      <c r="BB49">
+      <c r="BC49">
         <v>6.8957528957528957</v>
       </c>
-      <c r="BC49">
+      <c r="BD49">
         <v>123.2261904761905</v>
       </c>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>202</v>
       </c>
@@ -9556,52 +9707,55 @@
         <v>78.745015423971111</v>
       </c>
       <c r="AO50">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="AP50">
         <v>56.948694675476098</v>
       </c>
-      <c r="AP50" t="s">
+      <c r="AQ50" t="s">
         <v>56</v>
       </c>
-      <c r="AQ50">
+      <c r="AR50">
         <v>9.23</v>
       </c>
-      <c r="AR50">
+      <c r="AS50">
         <v>9.17</v>
       </c>
-      <c r="AS50">
+      <c r="AT50">
         <v>9.2899999999999991</v>
       </c>
-      <c r="AT50">
+      <c r="AU50">
         <v>0.168975069252078</v>
       </c>
-      <c r="AU50">
+      <c r="AV50">
         <v>0.49276700523237899</v>
       </c>
-      <c r="AV50">
+      <c r="AW50">
         <v>0.33825792551554301</v>
       </c>
-      <c r="AW50">
+      <c r="AX50">
         <v>3.6357615894039741</v>
       </c>
-      <c r="AX50">
+      <c r="AY50">
         <v>2.044699872286079</v>
       </c>
-      <c r="AY50">
+      <c r="AZ50">
         <v>2.3039832285115298</v>
       </c>
-      <c r="AZ50">
+      <c r="BA50">
         <v>37.293260473588347</v>
       </c>
-      <c r="BA50">
+      <c r="BB50">
         <v>17.755777638975641</v>
       </c>
-      <c r="BB50">
+      <c r="BC50">
         <v>21.7761601455869</v>
       </c>
-      <c r="BC50">
+      <c r="BD50">
         <v>185.6274269364398</v>
       </c>
     </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>205</v>
       </c>
@@ -9723,52 +9877,55 @@
         <v>86.667176623575301</v>
       </c>
       <c r="AO51">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AP51">
         <v>56.044391959315398</v>
       </c>
-      <c r="AP51" t="s">
+      <c r="AQ51" t="s">
         <v>123</v>
       </c>
-      <c r="AQ51">
+      <c r="AR51">
         <v>9.6</v>
       </c>
-      <c r="AR51">
+      <c r="AS51">
         <v>9.65</v>
       </c>
-      <c r="AS51">
+      <c r="AT51">
         <v>9.5500000000000007</v>
       </c>
-      <c r="AT51">
+      <c r="AU51">
         <v>0.24275466284074601</v>
       </c>
-      <c r="AU51">
+      <c r="AV51">
         <v>0.46484935437589697</v>
       </c>
-      <c r="AV51">
+      <c r="AW51">
         <v>0.29239598278335699</v>
       </c>
-      <c r="AW51">
+      <c r="AX51">
         <v>4.9186046511627923</v>
       </c>
-      <c r="AX51">
+      <c r="AY51">
         <v>1.9588875453446191</v>
       </c>
-      <c r="AY51">
+      <c r="AZ51">
         <v>1.915413533834587</v>
       </c>
-      <c r="AZ51">
+      <c r="BA51">
         <v>70.364066193853432</v>
       </c>
-      <c r="BA51">
+      <c r="BB51">
         <v>17.195679012345678</v>
       </c>
-      <c r="BB51">
+      <c r="BC51">
         <v>11.565260058881259</v>
       </c>
-      <c r="BC51">
+      <c r="BD51">
         <v>668.07725694444446</v>
       </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>207</v>
       </c>
@@ -9890,52 +10047,55 @@
         <v>67.737494263423599</v>
       </c>
       <c r="AO52">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="AP52">
         <v>57.769531311649601</v>
       </c>
-      <c r="AP52" t="s">
+      <c r="AQ52" t="s">
         <v>56</v>
       </c>
-      <c r="AQ52">
+      <c r="AR52">
         <v>10.74</v>
       </c>
-      <c r="AR52">
+      <c r="AS52">
         <v>10.77</v>
       </c>
-      <c r="AS52">
+      <c r="AT52">
         <v>10.72</v>
       </c>
-      <c r="AT52">
+      <c r="AU52">
         <v>0.31578947368421101</v>
       </c>
-      <c r="AU52">
+      <c r="AV52">
         <v>0.359649122807018</v>
       </c>
-      <c r="AV52">
+      <c r="AW52">
         <v>0.324561403508772</v>
       </c>
-      <c r="AW52">
+      <c r="AX52">
         <v>4.6153846153846159</v>
       </c>
-      <c r="AX52">
+      <c r="AY52">
         <v>1.694214876033058</v>
       </c>
-      <c r="AY52">
+      <c r="AZ52">
         <v>1.968085106382979</v>
       </c>
-      <c r="AZ52">
+      <c r="BA52">
         <v>23.37222222222222</v>
       </c>
-      <c r="BA52">
+      <c r="BB52">
         <v>4.5365853658536581</v>
       </c>
-      <c r="BB52">
+      <c r="BC52">
         <v>5.7405405405405423</v>
       </c>
-      <c r="BC52">
+      <c r="BD52">
         <v>1533.7539432176659</v>
       </c>
     </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>210</v>
       </c>
@@ -10057,52 +10217,55 @@
         <v>72.470709982629302</v>
       </c>
       <c r="AO53">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="AP53">
         <v>57.397434150150197</v>
       </c>
-      <c r="AP53" t="s">
+      <c r="AQ53" t="s">
         <v>56</v>
       </c>
-      <c r="AQ53">
+      <c r="AR53">
         <v>9.5299999999999994</v>
       </c>
-      <c r="AR53">
+      <c r="AS53">
         <v>9.66</v>
       </c>
-      <c r="AS53">
+      <c r="AT53">
         <v>9.41</v>
       </c>
-      <c r="AT53">
+      <c r="AU53">
         <v>0.20941516543643199</v>
       </c>
-      <c r="AU53">
+      <c r="AV53">
         <v>0.42631497444897498</v>
       </c>
-      <c r="AV53">
+      <c r="AW53">
         <v>0.364269860114593</v>
       </c>
-      <c r="AW53">
+      <c r="AX53">
         <v>6.9648068669527898</v>
       </c>
-      <c r="AX53">
+      <c r="AY53">
         <v>2.4149122807017549</v>
       </c>
-      <c r="AY53">
+      <c r="AZ53">
         <v>3.2656177695511341</v>
       </c>
-      <c r="AZ53">
+      <c r="BA53">
         <v>106.765590337688</v>
       </c>
-      <c r="BA53">
+      <c r="BB53">
         <v>35.389756629131853</v>
       </c>
-      <c r="BB53">
+      <c r="BC53">
         <v>29.340442114212841</v>
       </c>
-      <c r="BC53">
+      <c r="BD53">
         <v>8294.817239498092</v>
       </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>212</v>
       </c>
@@ -10224,52 +10387,55 @@
         <v>72.5377978986931</v>
       </c>
       <c r="AO54">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="AP54">
         <v>57.670576512718398</v>
       </c>
-      <c r="AP54" t="s">
+      <c r="AQ54" t="s">
         <v>56</v>
       </c>
-      <c r="AQ54">
+      <c r="AR54">
         <v>9.85</v>
       </c>
-      <c r="AR54">
+      <c r="AS54">
         <v>9.92</v>
       </c>
-      <c r="AS54">
+      <c r="AT54">
         <v>9.7899999999999991</v>
       </c>
-      <c r="AT54">
+      <c r="AU54">
         <v>0.31088460138332702</v>
       </c>
-      <c r="AU54">
+      <c r="AV54">
         <v>0.34692391700036401</v>
       </c>
-      <c r="AV54">
+      <c r="AW54">
         <v>0.34219148161630902</v>
       </c>
-      <c r="AW54">
+      <c r="AX54">
         <v>4.4248704663212441</v>
       </c>
-      <c r="AX54">
+      <c r="AY54">
         <v>1.917505030181087</v>
       </c>
-      <c r="AY54">
+      <c r="AZ54">
         <v>2.5066666666666668</v>
       </c>
-      <c r="AZ54">
+      <c r="BA54">
         <v>84.651053864168631</v>
       </c>
-      <c r="BA54">
+      <c r="BB54">
         <v>19.633788037775449</v>
       </c>
-      <c r="BB54">
+      <c r="BC54">
         <v>21.524468085106381</v>
       </c>
-      <c r="BC54">
+      <c r="BD54">
         <v>433.48187759952469</v>
       </c>
     </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>215</v>
       </c>
@@ -10391,52 +10557,55 @@
         <v>61.661128124932098</v>
       </c>
       <c r="AO55">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="AP55">
         <v>60.075588236860902</v>
       </c>
-      <c r="AP55" t="s">
+      <c r="AQ55" t="s">
         <v>56</v>
       </c>
-      <c r="AQ55">
+      <c r="AR55">
         <v>10.99</v>
       </c>
-      <c r="AR55">
+      <c r="AS55">
         <v>11.15</v>
       </c>
-      <c r="AS55">
+      <c r="AT55">
         <v>10.84</v>
       </c>
-      <c r="AT55">
+      <c r="AU55">
         <v>0.18735147401999599</v>
       </c>
-      <c r="AU55">
+      <c r="AV55">
         <v>0.45293198312958999</v>
       </c>
-      <c r="AV55">
+      <c r="AW55">
         <v>0.35971654285041399</v>
       </c>
-      <c r="AW55">
+      <c r="AX55">
         <v>6.6095166163141998</v>
       </c>
-      <c r="AX55">
+      <c r="AY55">
         <v>2.4953998584571839</v>
       </c>
-      <c r="AY55">
+      <c r="AZ55">
         <v>2.9129680998613039</v>
       </c>
-      <c r="AZ55">
+      <c r="BA55">
         <v>85.240886755799337</v>
       </c>
-      <c r="BA55">
+      <c r="BB55">
         <v>26.203677443751179</v>
       </c>
-      <c r="BB55">
+      <c r="BC55">
         <v>32.309367932389002</v>
       </c>
-      <c r="BC55">
+      <c r="BD55">
         <v>3487.946741415557</v>
       </c>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>219</v>
       </c>
@@ -10558,52 +10727,55 @@
         <v>70.663015841971401</v>
       </c>
       <c r="AO56">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="AP56">
         <v>56.920823137253898</v>
       </c>
-      <c r="AP56" t="s">
+      <c r="AQ56" t="s">
         <v>56</v>
       </c>
-      <c r="AQ56">
+      <c r="AR56">
         <v>9.82</v>
       </c>
-      <c r="AR56">
+      <c r="AS56">
         <v>9.89</v>
       </c>
-      <c r="AS56">
+      <c r="AT56">
         <v>9.76</v>
       </c>
-      <c r="AT56">
+      <c r="AU56">
         <v>0.12583892617449699</v>
       </c>
-      <c r="AU56">
+      <c r="AV56">
         <v>0.5</v>
       </c>
-      <c r="AV56">
+      <c r="AW56">
         <v>0.37416107382550301</v>
       </c>
-      <c r="AW56">
+      <c r="AX56">
         <v>2.5862068965517242</v>
       </c>
-      <c r="AX56">
+      <c r="AY56">
         <v>1.6373626373626371</v>
       </c>
-      <c r="AY56">
+      <c r="AZ56">
         <v>1.76984126984127</v>
       </c>
-      <c r="AZ56">
+      <c r="BA56">
         <v>24.733333333333331</v>
       </c>
-      <c r="BA56">
+      <c r="BB56">
         <v>18.224832214765101</v>
       </c>
-      <c r="BB56">
+      <c r="BC56">
         <v>10.663677130044841</v>
       </c>
-      <c r="BC56">
+      <c r="BD56">
         <v>500.17699115044252</v>
       </c>
     </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -10725,52 +10897,55 @@
         <v>74.059731267969298</v>
       </c>
       <c r="AO57">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="AP57">
         <v>56.825114602466897</v>
       </c>
-      <c r="AP57" t="s">
+      <c r="AQ57" t="s">
         <v>56</v>
       </c>
-      <c r="AQ57">
+      <c r="AR57">
         <v>9.1300000000000008</v>
       </c>
-      <c r="AR57">
+      <c r="AS57">
         <v>9.17</v>
       </c>
-      <c r="AS57">
+      <c r="AT57">
         <v>9.08</v>
       </c>
-      <c r="AT57">
+      <c r="AU57">
         <v>0.20599938781756999</v>
       </c>
-      <c r="AU57">
+      <c r="AV57">
         <v>0.49831649831649799</v>
       </c>
-      <c r="AV57">
+      <c r="AW57">
         <v>0.29568411386593202</v>
       </c>
-      <c r="AW57">
+      <c r="AX57">
         <v>3.3482587064676621</v>
       </c>
-      <c r="AX57">
+      <c r="AY57">
         <v>1.514418604651163</v>
       </c>
-      <c r="AY57">
+      <c r="AZ57">
         <v>1.847036328871893</v>
       </c>
-      <c r="AZ57">
+      <c r="BA57">
         <v>32.885586924219908</v>
       </c>
-      <c r="BA57">
+      <c r="BB57">
         <v>11.00491400491401</v>
       </c>
-      <c r="BB57">
+      <c r="BC57">
         <v>7.6666666666666679</v>
       </c>
-      <c r="BC57">
+      <c r="BD57">
         <v>264.82595225077461</v>
       </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>225</v>
       </c>
@@ -10892,52 +11067,55 @@
         <v>75.509190263288602</v>
       </c>
       <c r="AO58">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="AP58">
         <v>57.598895813821798</v>
       </c>
-      <c r="AP58" t="s">
+      <c r="AQ58" t="s">
         <v>56</v>
       </c>
-      <c r="AQ58">
+      <c r="AR58">
         <v>9.7899999999999991</v>
       </c>
-      <c r="AR58">
+      <c r="AS58">
         <v>9.8699999999999992</v>
       </c>
-      <c r="AS58">
+      <c r="AT58">
         <v>9.7200000000000006</v>
       </c>
-      <c r="AT58">
+      <c r="AU58">
         <v>0.107784431137725</v>
       </c>
-      <c r="AU58">
+      <c r="AV58">
         <v>0.60598802395209606</v>
       </c>
-      <c r="AV58">
+      <c r="AW58">
         <v>0.28622754491017999</v>
       </c>
-      <c r="AW58">
+      <c r="AX58">
         <v>2.5714285714285721</v>
       </c>
-      <c r="AX58">
+      <c r="AY58">
         <v>2.1171548117154808</v>
       </c>
-      <c r="AY58">
+      <c r="AZ58">
         <v>1.7071428571428571</v>
       </c>
-      <c r="AZ58">
+      <c r="BA58">
         <v>27.788888888888891</v>
       </c>
-      <c r="BA58">
+      <c r="BB58">
         <v>4.4130434782608692</v>
       </c>
-      <c r="BB58">
+      <c r="BC58">
         <v>8.5899581589958185</v>
       </c>
-      <c r="BC58">
+      <c r="BD58">
         <v>300.42316847394869</v>
       </c>
     </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>228</v>
       </c>
@@ -11059,52 +11237,55 @@
         <v>64.962593516209495</v>
       </c>
       <c r="AO59">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="AP59">
         <v>58.849955202788507</v>
       </c>
-      <c r="AP59" t="s">
+      <c r="AQ59" t="s">
         <v>56</v>
       </c>
-      <c r="AQ59">
+      <c r="AR59">
         <v>9.67</v>
       </c>
-      <c r="AR59">
+      <c r="AS59">
         <v>9.83</v>
       </c>
-      <c r="AS59">
+      <c r="AT59">
         <v>9.52</v>
       </c>
-      <c r="AT59">
+      <c r="AU59">
         <v>0.26767480935763199</v>
       </c>
-      <c r="AU59">
+      <c r="AV59">
         <v>0.43750807806643399</v>
       </c>
-      <c r="AV59">
+      <c r="AW59">
         <v>0.29481711257593401</v>
       </c>
-      <c r="AW59">
+      <c r="AX59">
         <v>8.3172690763052213</v>
       </c>
-      <c r="AX59">
+      <c r="AY59">
         <v>2.0602556299452219</v>
       </c>
-      <c r="AY59">
+      <c r="AZ59">
         <v>2.526024363233665</v>
       </c>
-      <c r="AZ59">
+      <c r="BA59">
         <v>76.426846933848381</v>
       </c>
-      <c r="BA59">
+      <c r="BB59">
         <v>19.19822747415067</v>
       </c>
-      <c r="BB59">
+      <c r="BC59">
         <v>37.260412099956163</v>
       </c>
-      <c r="BC59">
+      <c r="BD59">
         <v>1221.25</v>
       </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>230</v>
       </c>
@@ -11226,52 +11407,55 @@
         <v>69.168781443390799</v>
       </c>
       <c r="AO60">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="AP60">
         <v>58.221732089691898</v>
       </c>
-      <c r="AP60" t="s">
+      <c r="AQ60" t="s">
         <v>56</v>
       </c>
-      <c r="AQ60">
+      <c r="AR60">
         <v>10.01</v>
       </c>
-      <c r="AR60">
+      <c r="AS60">
         <v>10.15</v>
       </c>
-      <c r="AS60">
+      <c r="AT60">
         <v>9.8800000000000008</v>
       </c>
-      <c r="AT60">
+      <c r="AU60">
         <v>0.22677182368193599</v>
       </c>
-      <c r="AU60">
+      <c r="AV60">
         <v>0.362467588591184</v>
       </c>
-      <c r="AV60">
+      <c r="AW60">
         <v>0.41076058772688001</v>
       </c>
-      <c r="AW60">
+      <c r="AX60">
         <v>5.2344139650872821</v>
       </c>
-      <c r="AX60">
+      <c r="AY60">
         <v>2.2562205783456619</v>
       </c>
-      <c r="AY60">
+      <c r="AZ60">
         <v>3.2412617220801359</v>
       </c>
-      <c r="AZ60">
+      <c r="BA60">
         <v>114.2324916626965</v>
       </c>
-      <c r="BA60">
+      <c r="BB60">
         <v>19.035469448584202</v>
       </c>
-      <c r="BB60">
+      <c r="BC60">
         <v>27.00368227248816</v>
       </c>
-      <c r="BC60">
+      <c r="BD60">
         <v>703.37821591728778</v>
       </c>
     </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>234</v>
       </c>
@@ -11393,52 +11577,55 @@
         <v>73.162445954292807</v>
       </c>
       <c r="AO61">
+        <v>0.73</v>
+      </c>
+      <c r="AP61">
         <v>57.124604210099001</v>
       </c>
-      <c r="AP61" t="s">
+      <c r="AQ61" t="s">
         <v>56</v>
       </c>
-      <c r="AQ61">
+      <c r="AR61">
         <v>9.68</v>
       </c>
-      <c r="AR61">
+      <c r="AS61">
         <v>9.66</v>
       </c>
-      <c r="AS61">
+      <c r="AT61">
         <v>9.69</v>
       </c>
-      <c r="AT61">
+      <c r="AU61">
         <v>0.18677248677248701</v>
       </c>
-      <c r="AU61">
+      <c r="AV61">
         <v>0.50740740740740697</v>
       </c>
-      <c r="AV61">
+      <c r="AW61">
         <v>0.30582010582010599</v>
       </c>
-      <c r="AW61">
+      <c r="AX61">
         <v>2.6946564885496178</v>
       </c>
-      <c r="AX61">
+      <c r="AY61">
         <v>1.9773195876288661</v>
       </c>
-      <c r="AY61">
+      <c r="AZ61">
         <v>2.3119999999999998</v>
       </c>
-      <c r="AZ61">
+      <c r="BA61">
         <v>14.20396600566572</v>
       </c>
-      <c r="BA61">
+      <c r="BB61">
         <v>18.019812304483839</v>
       </c>
-      <c r="BB61">
+      <c r="BC61">
         <v>10.17301038062284</v>
       </c>
-      <c r="BC61">
+      <c r="BD61">
         <v>181.11234705228031</v>
       </c>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>237</v>
       </c>
@@ -11560,52 +11747,55 @@
         <v>82.313681868743004</v>
       </c>
       <c r="AO62">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="AP62">
         <v>56.275648456596599</v>
       </c>
-      <c r="AP62" t="s">
+      <c r="AQ62" t="s">
         <v>123</v>
       </c>
-      <c r="AQ62">
+      <c r="AR62">
         <v>9.1300000000000008</v>
       </c>
-      <c r="AR62">
+      <c r="AS62">
         <v>9.18</v>
       </c>
-      <c r="AS62">
+      <c r="AT62">
         <v>9.08</v>
       </c>
-      <c r="AT62">
+      <c r="AU62">
         <v>0.10616229408175699</v>
       </c>
-      <c r="AU62">
+      <c r="AV62">
         <v>0.51067724222086597</v>
       </c>
-      <c r="AV62">
+      <c r="AW62">
         <v>0.383160463697376</v>
       </c>
-      <c r="AW62">
+      <c r="AX62">
         <v>2.3199999999999998</v>
       </c>
-      <c r="AX62">
+      <c r="AY62">
         <v>1.8436123348017619</v>
       </c>
-      <c r="AY62">
+      <c r="AZ62">
         <v>2.0590163934426231</v>
       </c>
-      <c r="AZ62">
+      <c r="BA62">
         <v>15.85632183908046</v>
       </c>
-      <c r="BA62">
+      <c r="BB62">
         <v>18.394265232974909</v>
       </c>
-      <c r="BB62">
+      <c r="BC62">
         <v>11.085987261146499</v>
       </c>
-      <c r="BC62">
+      <c r="BD62">
         <v>473.44110854503469</v>
       </c>
     </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>239</v>
       </c>
@@ -11727,52 +11917,55 @@
         <v>68.270889547485297</v>
       </c>
       <c r="AO63">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="AP63">
         <v>58.116180303524303</v>
       </c>
-      <c r="AP63" t="s">
+      <c r="AQ63" t="s">
         <v>56</v>
       </c>
-      <c r="AQ63">
+      <c r="AR63">
         <v>9.85</v>
       </c>
-      <c r="AR63">
+      <c r="AS63">
         <v>9.99</v>
       </c>
-      <c r="AS63">
+      <c r="AT63">
         <v>9.7200000000000006</v>
       </c>
-      <c r="AT63">
+      <c r="AU63">
         <v>0.393167082294264</v>
       </c>
-      <c r="AU63">
+      <c r="AV63">
         <v>0.18960099750623399</v>
       </c>
-      <c r="AV63">
+      <c r="AW63">
         <v>0.41723192019950101</v>
       </c>
-      <c r="AW63">
+      <c r="AX63">
         <v>48.06707317073171</v>
       </c>
-      <c r="AX63">
+      <c r="AY63">
         <v>3.6552884615384609</v>
       </c>
-      <c r="AY63">
+      <c r="AZ63">
         <v>10.456875</v>
       </c>
-      <c r="AZ63">
+      <c r="BA63">
         <v>60.153241151845741</v>
       </c>
-      <c r="BA63">
+      <c r="BB63">
         <v>26.692884387741682</v>
       </c>
-      <c r="BB63">
+      <c r="BC63">
         <v>68.493036877652258</v>
       </c>
-      <c r="BC63">
+      <c r="BD63">
         <v>550.92976304324725</v>
       </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>243</v>
       </c>
@@ -11894,52 +12087,55 @@
         <v>66.006298310907496</v>
       </c>
       <c r="AO64">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="AP64">
         <v>58.546625553149099</v>
       </c>
-      <c r="AP64" t="s">
+      <c r="AQ64" t="s">
         <v>56</v>
       </c>
-      <c r="AQ64">
+      <c r="AR64">
         <v>9.35</v>
       </c>
-      <c r="AR64">
+      <c r="AS64">
         <v>9.2799999999999994</v>
       </c>
-      <c r="AS64">
+      <c r="AT64">
         <v>9.42</v>
       </c>
-      <c r="AT64">
+      <c r="AU64">
         <v>0.30040206777714001</v>
       </c>
-      <c r="AU64">
+      <c r="AV64">
         <v>0.369327972429638</v>
       </c>
-      <c r="AV64">
+      <c r="AW64">
         <v>0.33026995979322199</v>
       </c>
-      <c r="AW64">
+      <c r="AX64">
         <v>7.0675675675675684</v>
       </c>
-      <c r="AX64">
+      <c r="AY64">
         <v>1.898622047244094</v>
       </c>
-      <c r="AY64">
+      <c r="AZ64">
         <v>2.846534653465346</v>
       </c>
-      <c r="AZ64">
+      <c r="BA64">
         <v>56.13001912045889</v>
       </c>
-      <c r="BA64">
+      <c r="BB64">
         <v>17.974598237428719</v>
       </c>
-      <c r="BB64">
+      <c r="BC64">
         <v>33.68753623188406</v>
       </c>
-      <c r="BC64">
+      <c r="BD64">
         <v>322.28025789602532</v>
       </c>
     </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>246</v>
       </c>
@@ -12061,52 +12257,55 @@
         <v>70.711936301382195</v>
       </c>
       <c r="AO65">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="AP65">
         <v>57.632611147005107</v>
       </c>
-      <c r="AP65" t="s">
+      <c r="AQ65" t="s">
         <v>56</v>
       </c>
-      <c r="AQ65">
+      <c r="AR65">
         <v>10.52</v>
       </c>
-      <c r="AR65">
+      <c r="AS65">
         <v>10.64</v>
       </c>
-      <c r="AS65">
+      <c r="AT65">
         <v>10.4</v>
       </c>
-      <c r="AT65">
+      <c r="AU65">
         <v>0.155238382923023</v>
       </c>
-      <c r="AU65">
+      <c r="AV65">
         <v>0.43173236671197701</v>
       </c>
-      <c r="AV65">
+      <c r="AW65">
         <v>0.41302925036499999</v>
       </c>
-      <c r="AW65">
+      <c r="AX65">
         <v>6.7398907103825136</v>
       </c>
-      <c r="AX65">
+      <c r="AY65">
         <v>2.894195072561593</v>
       </c>
-      <c r="AY65">
+      <c r="AZ65">
         <v>3.6324994465353111</v>
       </c>
-      <c r="AZ65">
+      <c r="BA65">
         <v>77.669693530079456</v>
       </c>
-      <c r="BA65">
+      <c r="BB65">
         <v>30.40586554719841</v>
       </c>
-      <c r="BB65">
+      <c r="BC65">
         <v>35.970014627011217</v>
       </c>
-      <c r="BC65">
+      <c r="BD65">
         <v>639.16087136738361</v>
       </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>249</v>
       </c>
@@ -12228,52 +12427,55 @@
         <v>70.871027603804194</v>
       </c>
       <c r="AO66">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="AP66">
         <v>55.818600475044001</v>
       </c>
-      <c r="AP66" t="s">
+      <c r="AQ66" t="s">
         <v>123</v>
       </c>
-      <c r="AQ66">
+      <c r="AR66">
         <v>9.3000000000000007</v>
       </c>
-      <c r="AR66">
+      <c r="AS66">
         <v>9.35</v>
       </c>
-      <c r="AS66">
+      <c r="AT66">
         <v>9.25</v>
       </c>
-      <c r="AT66">
+      <c r="AU66">
         <v>0.26610534560407301</v>
       </c>
-      <c r="AU66">
+      <c r="AV66">
         <v>0.49657333072253801</v>
       </c>
-      <c r="AV66">
+      <c r="AW66">
         <v>0.23732132367339001</v>
       </c>
-      <c r="AW66">
+      <c r="AX66">
         <v>6.7277227722772279</v>
       </c>
-      <c r="AX66">
+      <c r="AY66">
         <v>2.0142970611596511</v>
       </c>
-      <c r="AY66">
+      <c r="AZ66">
         <v>2.0612244897959182</v>
       </c>
-      <c r="AZ66">
+      <c r="BA66">
         <v>43.672553348050037</v>
       </c>
-      <c r="BA66">
+      <c r="BB66">
         <v>44.231466876971609</v>
       </c>
-      <c r="BB66">
+      <c r="BC66">
         <v>25.911716171617162</v>
       </c>
-      <c r="BC66">
+      <c r="BD66">
         <v>2711.469740634006</v>
       </c>
     </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -12395,52 +12597,55 @@
         <v>65.063304275633001</v>
       </c>
       <c r="AO67">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="AP67">
         <v>58.985992062877507</v>
       </c>
-      <c r="AP67" t="s">
+      <c r="AQ67" t="s">
         <v>56</v>
       </c>
-      <c r="AQ67">
+      <c r="AR67">
         <v>10.5</v>
       </c>
-      <c r="AR67">
+      <c r="AS67">
         <v>10.61</v>
       </c>
-      <c r="AS67">
+      <c r="AT67">
         <v>10.41</v>
       </c>
-      <c r="AT67">
+      <c r="AU67">
         <v>9.2303155411382995E-2</v>
       </c>
-      <c r="AU67">
+      <c r="AV67">
         <v>0.49159539958714199</v>
       </c>
-      <c r="AV67">
+      <c r="AW67">
         <v>0.416101445001475</v>
       </c>
-      <c r="AW67">
+      <c r="AX67">
         <v>2.4453125</v>
       </c>
-      <c r="AX67">
+      <c r="AY67">
         <v>1.647233201581028</v>
       </c>
-      <c r="AY67">
+      <c r="AZ67">
         <v>2.7239382239382239</v>
       </c>
-      <c r="AZ67">
+      <c r="BA67">
         <v>23.980830670926519</v>
       </c>
-      <c r="BA67">
+      <c r="BB67">
         <v>9.6886622675464906</v>
       </c>
-      <c r="BB67">
+      <c r="BC67">
         <v>36.37420269312544</v>
       </c>
-      <c r="BC67">
+      <c r="BD67">
         <v>303.21109399075499</v>
       </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>255</v>
       </c>
@@ -12562,52 +12767,55 @@
         <v>58.702138854263403</v>
       </c>
       <c r="AO68">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="AP68">
         <v>59.988829899164998</v>
       </c>
-      <c r="AP68" t="s">
+      <c r="AQ68" t="s">
         <v>56</v>
       </c>
-      <c r="AQ68">
+      <c r="AR68">
         <v>10.93</v>
       </c>
-      <c r="AR68">
+      <c r="AS68">
         <v>11.1</v>
       </c>
-      <c r="AS68">
+      <c r="AT68">
         <v>10.76</v>
       </c>
-      <c r="AT68">
+      <c r="AU68">
         <v>0.28479383803784403</v>
       </c>
-      <c r="AU68">
+      <c r="AV68">
         <v>0.32073709083582203</v>
       </c>
-      <c r="AV68">
+      <c r="AW68">
         <v>0.394469071126335</v>
       </c>
-      <c r="AW68">
+      <c r="AX68">
         <v>24.816839584996011</v>
       </c>
-      <c r="AX68">
+      <c r="AY68">
         <v>5.1553069336081263</v>
       </c>
-      <c r="AY68">
+      <c r="AZ68">
         <v>7.4439163498098857</v>
       </c>
-      <c r="AZ68">
+      <c r="BA68">
         <v>119.34910196009071</v>
       </c>
-      <c r="BA68">
+      <c r="BB68">
         <v>51.021216447744152</v>
       </c>
-      <c r="BB68">
+      <c r="BC68">
         <v>72.999698169280592</v>
       </c>
-      <c r="BC68">
+      <c r="BD68">
         <v>8708.4078248477781</v>
       </c>
     </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>258</v>
       </c>
@@ -12729,52 +12937,55 @@
         <v>64.104691616810001</v>
       </c>
       <c r="AO69">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="AP69">
         <v>59.676760471926102</v>
       </c>
-      <c r="AP69" t="s">
+      <c r="AQ69" t="s">
         <v>56</v>
       </c>
-      <c r="AQ69">
+      <c r="AR69">
         <v>10.71</v>
       </c>
-      <c r="AR69">
+      <c r="AS69">
         <v>10.88</v>
       </c>
-      <c r="AS69">
+      <c r="AT69">
         <v>10.56</v>
       </c>
-      <c r="AT69">
+      <c r="AU69">
         <v>0.22575564389109701</v>
       </c>
-      <c r="AU69">
+      <c r="AV69">
         <v>0.43673591839796</v>
       </c>
-      <c r="AV69">
+      <c r="AW69">
         <v>0.33750843771094302</v>
       </c>
-      <c r="AW69">
+      <c r="AX69">
         <v>6.586433260393874</v>
       </c>
-      <c r="AX69">
+      <c r="AY69">
         <v>2.007931034482759</v>
       </c>
-      <c r="AY69">
+      <c r="AZ69">
         <v>2.4630541871921179</v>
       </c>
-      <c r="AZ69">
+      <c r="BA69">
         <v>177.45116279069771</v>
       </c>
-      <c r="BA69">
+      <c r="BB69">
         <v>16.266872746007209</v>
       </c>
-      <c r="BB69">
+      <c r="BC69">
         <v>25.817777777777781</v>
       </c>
-      <c r="BC69">
+      <c r="BD69">
         <v>5886.6691560866311</v>
       </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>260</v>
       </c>
@@ -12896,52 +13107,55 @@
         <v>60.840978593272197</v>
       </c>
       <c r="AO70">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="AP70">
         <v>59.946266860562197</v>
       </c>
-      <c r="AP70" t="s">
+      <c r="AQ70" t="s">
         <v>56</v>
       </c>
-      <c r="AQ70">
+      <c r="AR70">
         <v>10.37</v>
       </c>
-      <c r="AR70">
+      <c r="AS70">
         <v>10.57</v>
       </c>
-      <c r="AS70">
+      <c r="AT70">
         <v>10.18</v>
       </c>
-      <c r="AT70">
+      <c r="AU70">
         <v>0.32795674340977199</v>
       </c>
-      <c r="AU70">
+      <c r="AV70">
         <v>0.33731909737305399</v>
       </c>
-      <c r="AV70">
+      <c r="AW70">
         <v>0.33472415921717502</v>
       </c>
-      <c r="AW70">
+      <c r="AX70">
         <v>17.731149567367119</v>
       </c>
-      <c r="AX70">
+      <c r="AY70">
         <v>3.0853199498117938</v>
       </c>
-      <c r="AY70">
+      <c r="AZ70">
         <v>4.39390756302521</v>
       </c>
-      <c r="AZ70">
+      <c r="BA70">
         <v>119.4802886123601</v>
       </c>
-      <c r="BA70">
+      <c r="BB70">
         <v>25.43733902670462</v>
       </c>
-      <c r="BB70">
+      <c r="BC70">
         <v>45.959769133567839</v>
       </c>
-      <c r="BC70">
+      <c r="BD70">
         <v>7447.5840184624267</v>
       </c>
     </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>263</v>
       </c>
@@ -13063,52 +13277,55 @@
         <v>76.189742008428397</v>
       </c>
       <c r="AO71">
+        <v>0.624</v>
+      </c>
+      <c r="AP71">
         <v>53.566547915910697</v>
       </c>
-      <c r="AP71" t="s">
+      <c r="AQ71" t="s">
         <v>264</v>
       </c>
-      <c r="AQ71">
+      <c r="AR71">
         <v>8.08</v>
       </c>
-      <c r="AR71">
+      <c r="AS71">
         <v>8.1400000000000023</v>
       </c>
-      <c r="AS71">
+      <c r="AT71">
         <v>8.0299999999999994</v>
       </c>
-      <c r="AT71">
+      <c r="AU71">
         <v>0.17666778410995601</v>
       </c>
-      <c r="AU71">
+      <c r="AV71">
         <v>0.48038887026483401</v>
       </c>
-      <c r="AV71">
+      <c r="AW71">
         <v>0.34294334562521001</v>
       </c>
-      <c r="AW71">
+      <c r="AX71">
         <v>3.1939393939393939</v>
       </c>
-      <c r="AX71">
+      <c r="AY71">
         <v>2.2531446540880502</v>
       </c>
-      <c r="AY71">
+      <c r="AZ71">
         <v>2.7352941176470589</v>
       </c>
-      <c r="AZ71">
+      <c r="BA71">
         <v>30.375711574952561</v>
       </c>
-      <c r="BA71">
+      <c r="BB71">
         <v>21.589672016748079</v>
       </c>
-      <c r="BB71">
+      <c r="BC71">
         <v>21.963831867057671</v>
       </c>
-      <c r="BC71">
+      <c r="BD71">
         <v>167.88811371193839</v>
       </c>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>268</v>
       </c>
@@ -13230,52 +13447,55 @@
         <v>67.0902260943177</v>
       </c>
       <c r="AO72">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="AP72">
         <v>58.501876899639107</v>
       </c>
-      <c r="AP72" t="s">
+      <c r="AQ72" t="s">
         <v>56</v>
       </c>
-      <c r="AQ72">
+      <c r="AR72">
         <v>9.77</v>
       </c>
-      <c r="AR72">
+      <c r="AS72">
         <v>9.84</v>
       </c>
-      <c r="AS72">
+      <c r="AT72">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AT72">
+      <c r="AU72">
         <v>0.14132629290262499</v>
       </c>
-      <c r="AU72">
+      <c r="AV72">
         <v>0.50059533053786798</v>
       </c>
-      <c r="AV72">
+      <c r="AW72">
         <v>0.35807837655950697</v>
       </c>
-      <c r="AW72">
+      <c r="AX72">
         <v>3.2733812949640289</v>
       </c>
-      <c r="AX72">
+      <c r="AY72">
         <v>2.335748792270532</v>
       </c>
-      <c r="AY72">
+      <c r="AZ72">
         <v>2.7745687926193341</v>
       </c>
-      <c r="AZ72">
+      <c r="BA72">
         <v>33.814285714285717</v>
       </c>
-      <c r="BA72">
+      <c r="BB72">
         <v>25.8493278179938</v>
       </c>
-      <c r="BB72">
+      <c r="BC72">
         <v>32.222350730085303</v>
       </c>
-      <c r="BC72">
+      <c r="BD72">
         <v>1251.025961281113</v>
       </c>
     </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>270</v>
       </c>
@@ -13397,52 +13617,55 @@
         <v>49.344381532576001</v>
       </c>
       <c r="AO73">
+        <v>0.82</v>
+      </c>
+      <c r="AP73">
         <v>60.592014954574502</v>
       </c>
-      <c r="AP73" t="s">
+      <c r="AQ73" t="s">
         <v>56</v>
       </c>
-      <c r="AQ73">
+      <c r="AR73">
         <v>11.38</v>
       </c>
-      <c r="AR73">
+      <c r="AS73">
         <v>11.61</v>
       </c>
-      <c r="AS73">
+      <c r="AT73">
         <v>11.16</v>
       </c>
-      <c r="AT73">
+      <c r="AU73">
         <v>0.34864385711083501</v>
       </c>
-      <c r="AU73">
+      <c r="AV73">
         <v>0.27399316664289303</v>
       </c>
-      <c r="AV73">
+      <c r="AW73">
         <v>0.37736297624627302</v>
       </c>
-      <c r="AW73">
+      <c r="AX73">
         <v>31.74211502782931</v>
       </c>
-      <c r="AX73">
+      <c r="AY73">
         <v>4.6094160667352302</v>
       </c>
-      <c r="AY73">
+      <c r="AZ73">
         <v>7.1600721742492599</v>
       </c>
-      <c r="AZ73">
+      <c r="BA73">
         <v>162.29615991583381</v>
       </c>
-      <c r="BA73">
+      <c r="BB73">
         <v>41.606812603812877</v>
       </c>
-      <c r="BB73">
+      <c r="BC73">
         <v>58.302511025110249</v>
       </c>
-      <c r="BC73">
+      <c r="BD73">
         <v>5063.9697163185274</v>
       </c>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>274</v>
       </c>
@@ -13564,52 +13787,55 @@
         <v>73.688341133040694</v>
       </c>
       <c r="AO74">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="AP74">
         <v>57.801123728711303</v>
       </c>
-      <c r="AP74" t="s">
+      <c r="AQ74" t="s">
         <v>56</v>
       </c>
-      <c r="AQ74">
+      <c r="AR74">
         <v>9.1199999999999992</v>
       </c>
-      <c r="AR74">
+      <c r="AS74">
         <v>9.2200000000000006</v>
       </c>
-      <c r="AS74">
+      <c r="AT74">
         <v>9.02</v>
       </c>
-      <c r="AT74">
+      <c r="AU74">
         <v>0.130973549677706</v>
       </c>
-      <c r="AU74">
+      <c r="AV74">
         <v>0.49313736385863499</v>
       </c>
-      <c r="AV74">
+      <c r="AW74">
         <v>0.37588908646365898</v>
       </c>
-      <c r="AW74">
+      <c r="AX74">
         <v>2.8500604594921399</v>
       </c>
-      <c r="AX74">
+      <c r="AY74">
         <v>1.903173922367575</v>
       </c>
-      <c r="AY74">
+      <c r="AZ74">
         <v>2.2891708967851101</v>
       </c>
-      <c r="AZ74">
+      <c r="BA74">
         <v>29.842596521001269</v>
       </c>
-      <c r="BA74">
+      <c r="BB74">
         <v>13.842582680714409</v>
       </c>
-      <c r="BB74">
+      <c r="BC74">
         <v>19.771971320866289</v>
       </c>
-      <c r="BC74">
+      <c r="BD74">
         <v>8404.441107058572</v>
       </c>
     </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>277</v>
       </c>
@@ -13731,52 +13957,55 @@
         <v>66.294844739222199</v>
       </c>
       <c r="AO75">
+        <v>0.751</v>
+      </c>
+      <c r="AP75">
         <v>57.992569817371802</v>
       </c>
-      <c r="AP75" t="s">
+      <c r="AQ75" t="s">
         <v>56</v>
       </c>
-      <c r="AQ75">
+      <c r="AR75">
         <v>10.51</v>
       </c>
-      <c r="AR75">
+      <c r="AS75">
         <v>10.61</v>
       </c>
-      <c r="AS75">
+      <c r="AT75">
         <v>10.42</v>
       </c>
-      <c r="AT75">
+      <c r="AU75">
         <v>0.15819209039547999</v>
       </c>
-      <c r="AU75">
+      <c r="AV75">
         <v>0.47740112994350298</v>
       </c>
-      <c r="AV75">
+      <c r="AW75">
         <v>0.36440677966101698</v>
       </c>
-      <c r="AW75">
+      <c r="AX75">
         <v>2.1538461538461542</v>
       </c>
-      <c r="AX75">
+      <c r="AY75">
         <v>1.4955752212389379</v>
       </c>
-      <c r="AY75">
+      <c r="AZ75">
         <v>1.791666666666667</v>
       </c>
-      <c r="AZ75">
+      <c r="BA75">
         <v>17.080357142857139</v>
       </c>
-      <c r="BA75">
+      <c r="BB75">
         <v>12.83136094674556</v>
       </c>
-      <c r="BB75">
+      <c r="BC75">
         <v>10.51162790697674</v>
       </c>
-      <c r="BC75">
+      <c r="BD75">
         <v>1646.3495575221241</v>
       </c>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>279</v>
       </c>
@@ -13898,52 +14127,55 @@
         <v>65.467176810806393</v>
       </c>
       <c r="AO76">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="AP76">
         <v>59.374474867979004</v>
       </c>
-      <c r="AP76" t="s">
+      <c r="AQ76" t="s">
         <v>56</v>
       </c>
-      <c r="AQ76">
+      <c r="AR76">
         <v>10.42</v>
       </c>
-      <c r="AR76">
+      <c r="AS76">
         <v>10.6</v>
       </c>
-      <c r="AS76">
+      <c r="AT76">
         <v>10.26</v>
       </c>
-      <c r="AT76">
+      <c r="AU76">
         <v>0.124380591878871</v>
       </c>
-      <c r="AU76">
+      <c r="AV76">
         <v>0.42764969029593902</v>
       </c>
-      <c r="AV76">
+      <c r="AW76">
         <v>0.44796971782518902</v>
       </c>
-      <c r="AW76">
+      <c r="AX76">
         <v>3.3221507352941182</v>
       </c>
-      <c r="AX76">
+      <c r="AY76">
         <v>2.0630836273085702</v>
       </c>
-      <c r="AY76">
+      <c r="AZ76">
         <v>2.7686091025095698</v>
       </c>
-      <c r="AZ76">
+      <c r="BA76">
         <v>45.089154793194083</v>
       </c>
-      <c r="BA76">
+      <c r="BB76">
         <v>20.876845705089519</v>
       </c>
-      <c r="BB76">
+      <c r="BC76">
         <v>26.691139191888158</v>
       </c>
-      <c r="BC76">
+      <c r="BD76">
         <v>17028.264306038571</v>
       </c>
     </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>283</v>
       </c>
@@ -14065,48 +14297,51 @@
         <v>58.568623655319293</v>
       </c>
       <c r="AO77">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="AP77">
         <v>60.051137118580201</v>
       </c>
-      <c r="AP77" t="s">
+      <c r="AQ77" t="s">
         <v>56</v>
       </c>
-      <c r="AQ77">
+      <c r="AR77">
         <v>11.11</v>
       </c>
-      <c r="AR77">
+      <c r="AS77">
         <v>11.25</v>
       </c>
-      <c r="AS77">
+      <c r="AT77">
         <v>10.98</v>
       </c>
-      <c r="AT77">
+      <c r="AU77">
         <v>0.15781289338447599</v>
       </c>
-      <c r="AU77">
+      <c r="AV77">
         <v>0.36606292176986599</v>
       </c>
-      <c r="AV77">
+      <c r="AW77">
         <v>0.47612418484565799</v>
       </c>
-      <c r="AW77">
+      <c r="AX77">
         <v>8.2243375353743264</v>
       </c>
-      <c r="AX77">
+      <c r="AY77">
         <v>3.113971360181413</v>
       </c>
-      <c r="AY77">
+      <c r="AZ77">
         <v>4.7371316306483298</v>
       </c>
-      <c r="AZ77">
+      <c r="BA77">
         <v>82.260166416416411</v>
       </c>
-      <c r="BA77">
+      <c r="BB77">
         <v>32.639057084676267</v>
       </c>
-      <c r="BB77">
+      <c r="BC77">
         <v>53.876327140013267</v>
       </c>
-      <c r="BC77">
+      <c r="BD77">
         <v>13347.18462063474</v>
       </c>
     </row>
